--- a/raw_data/BNB-USD_4h_process.xlsx
+++ b/raw_data/BNB-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>314.1121215820312</v>
+        <v>317.0716857910156</v>
       </c>
       <c r="C2">
-        <v>323.7694091796875</v>
+        <v>321.0091857910156</v>
       </c>
       <c r="D2">
-        <v>311.4515380859375</v>
+        <v>312.4590759277344</v>
       </c>
       <c r="E2">
-        <v>323.61279296875</v>
+        <v>314.5132141113281</v>
       </c>
       <c r="F2">
-        <v>63468160</v>
+        <v>37824128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>323.8037109375</v>
+        <v>314.5517883300781</v>
       </c>
       <c r="C3">
-        <v>327.5308532714844</v>
+        <v>318.7286071777344</v>
       </c>
       <c r="D3">
-        <v>321.5612182617188</v>
+        <v>314.4246826171875</v>
       </c>
       <c r="E3">
-        <v>325.9792785644531</v>
+        <v>316.6611022949219</v>
       </c>
       <c r="F3">
-        <v>85519360</v>
+        <v>23357312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>325.9429626464844</v>
+        <v>316.6244506835937</v>
       </c>
       <c r="C4">
-        <v>329.75390625</v>
+        <v>317.6501159667969</v>
       </c>
       <c r="D4">
-        <v>321.3273010253906</v>
+        <v>312.1454467773437</v>
       </c>
       <c r="E4">
-        <v>323.3056640625</v>
+        <v>317.4837036132812</v>
       </c>
       <c r="F4">
-        <v>64466304</v>
+        <v>60302592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>323.2981567382812</v>
+        <v>317.4079284667969</v>
       </c>
       <c r="C5">
-        <v>336.0415954589844</v>
+        <v>322.2576293945312</v>
       </c>
       <c r="D5">
-        <v>323.2981567382812</v>
+        <v>317.11962890625</v>
       </c>
       <c r="E5">
-        <v>336.0415954589844</v>
+        <v>318.6321105957031</v>
       </c>
       <c r="F5">
-        <v>78784768</v>
+        <v>37350272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>336.0333862304688</v>
+        <v>318.678955078125</v>
       </c>
       <c r="C6">
-        <v>337.4258117675781</v>
+        <v>323.8224792480469</v>
       </c>
       <c r="D6">
-        <v>325.6889953613281</v>
+        <v>318.0285339355469</v>
       </c>
       <c r="E6">
-        <v>328.5195922851562</v>
+        <v>318.0285339355469</v>
       </c>
       <c r="F6">
-        <v>81898368</v>
+        <v>18413568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>328.5701599121094</v>
+        <v>317.9522094726562</v>
       </c>
       <c r="C7">
-        <v>334.1760559082031</v>
+        <v>321.8255310058594</v>
       </c>
       <c r="D7">
-        <v>328.1774291992188</v>
+        <v>316.8357238769531</v>
       </c>
       <c r="E7">
-        <v>331.9754638671875</v>
+        <v>319.7767944335937</v>
       </c>
       <c r="F7">
-        <v>19402624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>331.8011474609375</v>
+        <v>319.7687683105469</v>
       </c>
       <c r="C8">
-        <v>331.8011474609375</v>
+        <v>321.4183959960937</v>
       </c>
       <c r="D8">
-        <v>322.9739685058594</v>
+        <v>318.4654235839844</v>
       </c>
       <c r="E8">
-        <v>323.5557250976562</v>
+        <v>318.5663146972656</v>
       </c>
       <c r="F8">
-        <v>19186944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>323.5130310058594</v>
+        <v>318.5760803222656</v>
       </c>
       <c r="C9">
-        <v>325.5014343261719</v>
+        <v>323.5708312988281</v>
       </c>
       <c r="D9">
-        <v>316.9173583984375</v>
+        <v>318.5760803222656</v>
       </c>
       <c r="E9">
-        <v>321.2518615722656</v>
+        <v>323.5708312988281</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>9414272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>321.3063354492188</v>
+        <v>323.6202392578125</v>
       </c>
       <c r="C10">
-        <v>322.1713562011719</v>
+        <v>327.0423278808594</v>
       </c>
       <c r="D10">
-        <v>315.07421875</v>
+        <v>320.686767578125</v>
       </c>
       <c r="E10">
-        <v>315.07421875</v>
+        <v>322.0607604980469</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>93417728</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>315.12158203125</v>
+        <v>322.0885314941406</v>
       </c>
       <c r="C11">
-        <v>319.8634643554688</v>
+        <v>323.3590698242188</v>
       </c>
       <c r="D11">
-        <v>314.0679931640625</v>
+        <v>317.8409118652344</v>
       </c>
       <c r="E11">
-        <v>318.6159057617188</v>
+        <v>317.9863891601562</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>27940608</v>
       </c>
       <c r="L11">
-        <v>40.9965196938783</v>
+        <v>50.77597071869137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>318.540771484375</v>
+        <v>318.0278625488281</v>
       </c>
       <c r="C12">
-        <v>321.5987854003906</v>
+        <v>321.7919006347656</v>
       </c>
       <c r="D12">
-        <v>311.2483825683594</v>
+        <v>317.7903747558594</v>
       </c>
       <c r="E12">
-        <v>312.1021728515625</v>
+        <v>319.2713623046875</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>33.25436029009525</v>
+        <v>55.56541684134334</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>312.1378173828125</v>
+        <v>319.274169921875</v>
       </c>
       <c r="C13">
-        <v>314.2066345214844</v>
+        <v>319.8733825683594</v>
       </c>
       <c r="D13">
-        <v>309.1914367675781</v>
+        <v>312.5243835449219</v>
       </c>
       <c r="E13">
-        <v>314.16748046875</v>
+        <v>313.1130981445312</v>
       </c>
       <c r="F13">
-        <v>5559424</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>37.46679451706854</v>
+        <v>36.44599577832889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>314.172607421875</v>
+        <v>313.7745666503906</v>
       </c>
       <c r="C14">
-        <v>314.2685241699219</v>
+        <v>315.1944274902344</v>
       </c>
       <c r="D14">
-        <v>309.2552490234375</v>
+        <v>310.6506652832031</v>
       </c>
       <c r="E14">
-        <v>313.8704833984375</v>
+        <v>314.4567260742188</v>
       </c>
       <c r="F14">
-        <v>1773952</v>
+        <v>24602624</v>
       </c>
       <c r="L14">
-        <v>37.08812093801553</v>
+        <v>41.39563302716072</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>313.8419494628906</v>
+        <v>314.4426879882812</v>
       </c>
       <c r="C15">
-        <v>317.0369873046875</v>
+        <v>318.248291015625</v>
       </c>
       <c r="D15">
-        <v>313.56005859375</v>
+        <v>314.4426879882812</v>
       </c>
       <c r="E15">
-        <v>315.8056335449219</v>
+        <v>317.4248657226562</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>754048</v>
       </c>
       <c r="L15">
-        <v>41.42749685725791</v>
+        <v>50.89902053347411</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,1076 +1309,1085 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>315.8093872070312</v>
+        <v>317.4951782226562</v>
       </c>
       <c r="C16">
-        <v>319.3306579589844</v>
+        <v>317.8272705078125</v>
       </c>
       <c r="D16">
-        <v>315.8093872070312</v>
+        <v>306.4508361816406</v>
       </c>
       <c r="E16">
-        <v>318.508056640625</v>
+        <v>308.2295227050781</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>96039040</v>
       </c>
       <c r="L16">
-        <v>47.15410033461284</v>
+        <v>32.51965499745375</v>
       </c>
       <c r="M16">
-        <v>46.10558353340195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>35.56594256965813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>318.5401916503906</v>
+        <v>308.2082214355469</v>
       </c>
       <c r="C17">
-        <v>319.052490234375</v>
+        <v>308.8217163085937</v>
       </c>
       <c r="D17">
-        <v>314.2259826660156</v>
+        <v>301.3959655761719</v>
       </c>
       <c r="E17">
-        <v>316.8948974609375</v>
+        <v>304.0999145507812</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>23671168</v>
       </c>
       <c r="L17">
-        <v>44.24886155677123</v>
+        <v>27.50221492082407</v>
       </c>
       <c r="M17">
-        <v>44.02062053364644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>30.87563597478753</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>316.8794860839844</v>
+        <v>304.1527709960937</v>
       </c>
       <c r="C18">
-        <v>320.111572265625</v>
+        <v>307.4751281738281</v>
       </c>
       <c r="D18">
-        <v>315.6492309570312</v>
+        <v>303.1456298828125</v>
       </c>
       <c r="E18">
-        <v>318.7642517089844</v>
+        <v>307.4751281738281</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1480704</v>
       </c>
       <c r="L18">
-        <v>48.39391549369982</v>
+        <v>36.50942819736676</v>
       </c>
       <c r="M18">
-        <v>47.01102163754846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38.06484695021805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>318.7926940917969</v>
+        <v>307.4607238769531</v>
       </c>
       <c r="C19">
-        <v>320.1032409667969</v>
+        <v>307.935791015625</v>
       </c>
       <c r="D19">
-        <v>315.9560546875</v>
+        <v>304.6884765625</v>
       </c>
       <c r="E19">
-        <v>315.9634399414062</v>
+        <v>307.331787109375</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>43.00457148375985</v>
+        <v>36.29399019777509</v>
       </c>
       <c r="M19">
-        <v>43.28049156212415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>37.88464175464005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>316.0125732421875</v>
+        <v>307.2956237792969</v>
       </c>
       <c r="C20">
-        <v>317.9534606933594</v>
+        <v>308.3822021484375</v>
       </c>
       <c r="D20">
-        <v>314.6994934082031</v>
+        <v>305.7536010742188</v>
       </c>
       <c r="E20">
-        <v>317.2540588378906</v>
+        <v>306.29931640625</v>
       </c>
       <c r="F20">
-        <v>9998144</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>46.11540240962916</v>
+        <v>34.63773812226759</v>
       </c>
       <c r="M20">
-        <v>45.42944976949716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36.54269409297624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>317.0681457519531</v>
+        <v>306.2918395996094</v>
       </c>
       <c r="C21">
-        <v>319.9093933105469</v>
+        <v>307.8885192871094</v>
       </c>
       <c r="D21">
-        <v>316.97705078125</v>
+        <v>305.6965942382812</v>
       </c>
       <c r="E21">
-        <v>319.1109924316406</v>
+        <v>307.5454711914062</v>
       </c>
       <c r="F21">
-        <v>5675520</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>320.5186782836914</v>
+        <v>314.6263473510742</v>
       </c>
       <c r="L21">
-        <v>50.48946395062845</v>
+        <v>38.45151978497083</v>
       </c>
       <c r="M21">
-        <v>48.45539961279712</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>39.33577786784588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>319.1538391113281</v>
+        <v>307.7940673828125</v>
       </c>
       <c r="C22">
-        <v>325.0065307617188</v>
+        <v>308.8296203613281</v>
       </c>
       <c r="D22">
-        <v>319.1333618164062</v>
+        <v>305.9303283691406</v>
       </c>
       <c r="E22">
-        <v>322.4978942871094</v>
+        <v>306.7015686035156</v>
       </c>
       <c r="F22">
-        <v>81808192</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>320.6129266648065</v>
+        <v>314.2489769345238</v>
       </c>
       <c r="H22">
-        <v>320.4629333496094</v>
+        <v>314.2357650756836</v>
       </c>
       <c r="L22">
-        <v>57.5586330399243</v>
+        <v>36.81498141980661</v>
       </c>
       <c r="M22">
-        <v>53.51805753231006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38.11236445573599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>322.5057678222656</v>
+        <v>306.7071838378906</v>
       </c>
       <c r="C23">
-        <v>323.3746032714844</v>
+        <v>309.1578369140625</v>
       </c>
       <c r="D23">
-        <v>317.8992614746094</v>
+        <v>306.7071838378906</v>
       </c>
       <c r="E23">
-        <v>317.9033203125</v>
+        <v>309.1578369140625</v>
       </c>
       <c r="F23">
-        <v>9787648</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>320.3665988145968</v>
+        <v>313.7861460235728</v>
       </c>
       <c r="H23">
-        <v>320.0591354370117</v>
+        <v>313.8606018066406</v>
       </c>
       <c r="L23">
-        <v>47.26038875002182</v>
+        <v>44.54357639799331</v>
       </c>
       <c r="M23">
-        <v>46.80236877497633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>43.60976716587368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>317.9261779785156</v>
+        <v>309.1509399414062</v>
       </c>
       <c r="C24">
-        <v>318.31298828125</v>
+        <v>309.8823852539062</v>
       </c>
       <c r="D24">
-        <v>315.7053527832031</v>
+        <v>306.0275573730469</v>
       </c>
       <c r="E24">
-        <v>315.7757263183594</v>
+        <v>306.4315795898437</v>
       </c>
       <c r="F24">
-        <v>6641792</v>
+        <v>3475904</v>
       </c>
       <c r="G24">
-        <v>319.9492467694843</v>
+        <v>313.117549075052</v>
       </c>
       <c r="H24">
-        <v>319.6826385498047</v>
+        <v>313.3079956054688</v>
       </c>
       <c r="L24">
-        <v>43.23095875048271</v>
+        <v>38.64174588236019</v>
       </c>
       <c r="M24">
-        <v>44.04607429080051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>39.42386926519721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>315.741455078125</v>
+        <v>306.4395751953125</v>
       </c>
       <c r="C25">
-        <v>318.3039245605469</v>
+        <v>308.0474243164062</v>
       </c>
       <c r="D25">
-        <v>315.63671875</v>
+        <v>305.055908203125</v>
       </c>
       <c r="E25">
-        <v>316.1834106445312</v>
+        <v>306.0010070800781</v>
       </c>
       <c r="F25">
-        <v>3325952</v>
+        <v>9350080</v>
       </c>
       <c r="G25">
-        <v>319.6068980308522</v>
+        <v>312.4705907118725</v>
       </c>
       <c r="H25">
-        <v>318.6897293090821</v>
+        <v>312.6764404296875</v>
       </c>
       <c r="L25">
-        <v>44.25551548237325</v>
+        <v>37.75298502055386</v>
       </c>
       <c r="M25">
-        <v>44.71790861580808</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>38.79058983311023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>316.2014770507812</v>
+        <v>305.9798889160156</v>
       </c>
       <c r="C26">
-        <v>316.2453918457031</v>
+        <v>306.78662109375</v>
       </c>
       <c r="D26">
-        <v>310.6978454589844</v>
+        <v>303.5908813476562</v>
       </c>
       <c r="E26">
-        <v>312.4137573242188</v>
+        <v>306.6336669921875</v>
       </c>
       <c r="F26">
-        <v>22252736</v>
+        <v>28522048</v>
       </c>
       <c r="G26">
-        <v>318.952976148431</v>
+        <v>311.9399612828102</v>
       </c>
       <c r="H26">
-        <v>317.8844375610352</v>
+        <v>312.1066970825195</v>
       </c>
       <c r="L26">
-        <v>37.26030513978365</v>
+        <v>40.03289553340699</v>
       </c>
       <c r="M26">
-        <v>39.94231915894738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>40.30785682760903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>312.3859252929688</v>
+        <v>306.6680603027344</v>
       </c>
       <c r="C27">
-        <v>315.7456665039062</v>
+        <v>307.0313720703125</v>
       </c>
       <c r="D27">
-        <v>309.6226501464844</v>
+        <v>301.0862121582031</v>
       </c>
       <c r="E27">
-        <v>309.7034912109375</v>
+        <v>302.9157104492188</v>
       </c>
       <c r="F27">
-        <v>12302336</v>
+        <v>32609600</v>
       </c>
       <c r="G27">
-        <v>318.1121138813861</v>
+        <v>311.1195748433928</v>
       </c>
       <c r="H27">
-        <v>316.7708389282226</v>
+        <v>311.2636428833008</v>
       </c>
       <c r="L27">
-        <v>33.03661575399774</v>
+        <v>32.22869374985643</v>
       </c>
       <c r="M27">
-        <v>36.89182078658304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>34.84192040003148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>309.7518310546875</v>
+        <v>302.9035034179688</v>
       </c>
       <c r="C28">
-        <v>311.0604858398437</v>
+        <v>302.9035034179688</v>
       </c>
       <c r="D28">
-        <v>308.0967407226562</v>
+        <v>290.8804016113281</v>
       </c>
       <c r="E28">
-        <v>310.5700073242188</v>
+        <v>294.0711975097656</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>119950080</v>
       </c>
       <c r="G28">
-        <v>317.4264678307345</v>
+        <v>309.5697223585176</v>
       </c>
       <c r="H28">
-        <v>316.1215530395508</v>
+        <v>310.0388870239258</v>
       </c>
       <c r="L28">
-        <v>35.65989521715807</v>
+        <v>21.17918675164086</v>
       </c>
       <c r="M28">
-        <v>38.50878346699676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>25.85864170430175</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>310.6103515625</v>
+        <v>294.0525207519531</v>
       </c>
       <c r="C29">
-        <v>312.500244140625</v>
+        <v>299.8212280273437</v>
       </c>
       <c r="D29">
-        <v>309.52685546875</v>
+        <v>293.5421447753906</v>
       </c>
       <c r="E29">
-        <v>309.9414367675781</v>
+        <v>298.9896240234375</v>
       </c>
       <c r="F29">
-        <v>288576</v>
+        <v>44002752</v>
       </c>
       <c r="G29">
-        <v>316.7460104613567</v>
+        <v>308.6078952371466</v>
       </c>
       <c r="H29">
-        <v>315.5560317993164</v>
+        <v>308.8098266601563</v>
       </c>
       <c r="L29">
-        <v>34.55518024218963</v>
+        <v>35.09960609114201</v>
       </c>
       <c r="M29">
-        <v>37.75311856253133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>35.77542804364096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>309.9349975585937</v>
+        <v>298.9998168945312</v>
       </c>
       <c r="C30">
-        <v>312.3643188476562</v>
+        <v>300.5856323242188</v>
       </c>
       <c r="D30">
-        <v>309.5267639160156</v>
+        <v>297.3089599609375</v>
       </c>
       <c r="E30">
-        <v>312.3643188476562</v>
+        <v>299.3792419433594</v>
       </c>
       <c r="F30">
-        <v>21496000</v>
+        <v>18656832</v>
       </c>
       <c r="G30">
-        <v>316.3476748601111</v>
+        <v>307.7689267558932</v>
       </c>
       <c r="H30">
-        <v>315.4205368041992</v>
+        <v>307.6757507324219</v>
       </c>
       <c r="L30">
-        <v>42.30574759836878</v>
+        <v>36.10524455926721</v>
       </c>
       <c r="M30">
-        <v>42.44168877396486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>36.50000006932167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>312.3125610351562</v>
+        <v>299.4324035644531</v>
       </c>
       <c r="C31">
-        <v>313.4856567382812</v>
+        <v>303.1268005371094</v>
       </c>
       <c r="D31">
-        <v>311.078857421875</v>
+        <v>299.4324035644531</v>
       </c>
       <c r="E31">
-        <v>311.8434448242188</v>
+        <v>301.6937255859375</v>
       </c>
       <c r="F31">
-        <v>28606208</v>
+        <v>76696832</v>
       </c>
       <c r="G31">
-        <v>315.9381994023027</v>
+        <v>307.2166357404427</v>
       </c>
       <c r="H31">
-        <v>315.0819137573242</v>
+        <v>306.8611175537109</v>
       </c>
       <c r="I31">
-        <v>318.3190124511719</v>
+        <v>310.8167368570964</v>
       </c>
       <c r="L31">
-        <v>41.12774549446741</v>
+        <v>42.1008675502094</v>
       </c>
       <c r="M31">
-        <v>41.71425671021483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>40.77453342870512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>311.8584899902344</v>
+        <v>301.7345886230469</v>
       </c>
       <c r="C32">
-        <v>315.2374572753906</v>
+        <v>308.2834777832031</v>
       </c>
       <c r="D32">
-        <v>311.6366882324219</v>
+        <v>300.3829345703125</v>
       </c>
       <c r="E32">
-        <v>314.3778991699219</v>
+        <v>307.9969177246094</v>
       </c>
       <c r="F32">
-        <v>2207104</v>
+        <v>66899200</v>
       </c>
       <c r="G32">
-        <v>315.7963539266317</v>
+        <v>307.2875704662761</v>
       </c>
       <c r="H32">
-        <v>315.1957000732422</v>
+        <v>306.2973953247071</v>
       </c>
       <c r="I32">
-        <v>318.0111826578776</v>
+        <v>310.5995269775391</v>
       </c>
       <c r="L32">
-        <v>48.91437792130417</v>
+        <v>55.02957361613065</v>
       </c>
       <c r="M32">
-        <v>46.51763553814046</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>50.53938434678385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>314.2675476074219</v>
+        <v>308.0650634765625</v>
       </c>
       <c r="C33">
-        <v>320.1383666992188</v>
+        <v>308.1500549316406</v>
       </c>
       <c r="D33">
-        <v>313.4585571289062</v>
+        <v>304.5068664550781</v>
       </c>
       <c r="E33">
-        <v>319.2182006835937</v>
+        <v>304.5068664550781</v>
       </c>
       <c r="F33">
-        <v>81161600</v>
+        <v>24807808</v>
       </c>
       <c r="G33">
-        <v>316.1074309045374</v>
+        <v>307.0347791925308</v>
       </c>
       <c r="H33">
-        <v>315.4482360839844</v>
+        <v>305.8670837402344</v>
       </c>
       <c r="I33">
-        <v>317.7858133951823</v>
+        <v>310.1943857828776</v>
       </c>
       <c r="L33">
-        <v>60.21898216674923</v>
+        <v>48.30997133578025</v>
       </c>
       <c r="M33">
-        <v>54.26884231459131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>46.01544572480328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>319.2394104003906</v>
+        <v>304.4752502441406</v>
       </c>
       <c r="C34">
-        <v>319.4026184082031</v>
+        <v>304.8103942871094</v>
       </c>
       <c r="D34">
-        <v>317.4181823730469</v>
+        <v>298.9388732910156</v>
       </c>
       <c r="E34">
-        <v>317.7272338867188</v>
+        <v>299.0295715332031</v>
       </c>
       <c r="F34">
-        <v>80512</v>
+        <v>8376704</v>
       </c>
       <c r="G34">
-        <v>316.2546857210993</v>
+        <v>306.3070330416828</v>
       </c>
       <c r="H34">
-        <v>315.6410736083984</v>
+        <v>305.0957260131836</v>
       </c>
       <c r="I34">
-        <v>317.5998657226563</v>
+        <v>309.579248046875</v>
       </c>
       <c r="L34">
-        <v>55.93004279400711</v>
+        <v>39.74190300186932</v>
       </c>
       <c r="M34">
-        <v>51.77943331004349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>39.96865070771407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>317.7142028808594</v>
+        <v>299.0420837402344</v>
       </c>
       <c r="C35">
-        <v>320.40625</v>
+        <v>304.4812927246094</v>
       </c>
       <c r="D35">
-        <v>317.6752624511719</v>
+        <v>298.6620788574219</v>
       </c>
       <c r="E35">
-        <v>319.1797180175781</v>
+        <v>304.4617919921875</v>
       </c>
       <c r="F35">
-        <v>21020480</v>
+        <v>36907264</v>
       </c>
       <c r="G35">
-        <v>316.5205977480519</v>
+        <v>306.139283855365</v>
       </c>
       <c r="H35">
-        <v>315.8097778320313</v>
+        <v>304.4475723266602</v>
       </c>
       <c r="I35">
-        <v>317.037803141276</v>
+        <v>309.1069040934245</v>
       </c>
       <c r="L35">
-        <v>59.12094361341856</v>
+        <v>49.69620237592519</v>
       </c>
       <c r="M35">
-        <v>53.99351120396168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>47.35716066546209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>319.2575378417969</v>
+        <v>304.4766540527344</v>
       </c>
       <c r="C36">
-        <v>320.9332275390625</v>
+        <v>306.6708068847656</v>
       </c>
       <c r="D36">
-        <v>308.3506469726562</v>
+        <v>303.4023742675781</v>
       </c>
       <c r="E36">
-        <v>309.3291931152344</v>
+        <v>304.5819702148437</v>
       </c>
       <c r="F36">
-        <v>114246400</v>
+        <v>95528064</v>
       </c>
       <c r="G36">
-        <v>315.866833690523</v>
+        <v>305.9977098880449</v>
       </c>
       <c r="H36">
-        <v>315.3508346557617</v>
+        <v>304.2651947021484</v>
       </c>
       <c r="I36">
-        <v>316.3981231689453</v>
+        <v>308.6586853027344</v>
       </c>
       <c r="L36">
-        <v>38.08302988669141</v>
+        <v>49.90217762977699</v>
       </c>
       <c r="M36">
-        <v>40.43409542270221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>47.51107515575836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>309.3039855957031</v>
+        <v>304.6213073730469</v>
       </c>
       <c r="C37">
-        <v>311.1972961425781</v>
+        <v>304.9863891601562</v>
       </c>
       <c r="D37">
-        <v>308.406982421875</v>
+        <v>298.7511901855469</v>
       </c>
       <c r="E37">
-        <v>311.0126953125</v>
+        <v>301.5004577636719</v>
       </c>
       <c r="F37">
-        <v>41409920</v>
+        <v>90996224</v>
       </c>
       <c r="G37">
-        <v>315.4255483834299</v>
+        <v>305.5888687858292</v>
       </c>
       <c r="H37">
-        <v>315.0567245483398</v>
+        <v>304.1352218627929</v>
       </c>
       <c r="I37">
-        <v>315.6993642171224</v>
+        <v>308.0494740804036</v>
       </c>
       <c r="L37">
-        <v>42.04797145962453</v>
+        <v>44.63063185718543</v>
       </c>
       <c r="M37">
-        <v>43.06565226083953</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>43.96180882001324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>310.9981994628906</v>
+        <v>301.4710998535156</v>
       </c>
       <c r="C38">
-        <v>312.6174621582031</v>
+        <v>302.101318359375</v>
       </c>
       <c r="D38">
-        <v>310.2998352050781</v>
+        <v>298.6671447753906</v>
       </c>
       <c r="E38">
-        <v>312.0816040039062</v>
+        <v>299.6627807617188</v>
       </c>
       <c r="F38">
-        <v>7252608</v>
+        <v>32348032</v>
       </c>
       <c r="G38">
-        <v>315.1215534398369</v>
+        <v>305.05013351091</v>
       </c>
       <c r="H38">
-        <v>314.7225921630859</v>
+        <v>303.7446044921875</v>
       </c>
       <c r="I38">
-        <v>315.3168935139974</v>
+        <v>307.4193562825521</v>
       </c>
       <c r="L38">
-        <v>44.58281411914263</v>
+        <v>41.67689618449143</v>
       </c>
       <c r="M38">
-        <v>44.73511185665514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>41.9492089344101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>312.151611328125</v>
+        <v>299.608642578125</v>
       </c>
       <c r="C39">
-        <v>314.6316528320312</v>
+        <v>301.8429260253906</v>
       </c>
       <c r="D39">
-        <v>312.151611328125</v>
+        <v>296.5199890136719</v>
       </c>
       <c r="E39">
-        <v>312.5206604003906</v>
+        <v>300.9762878417969</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>93220608</v>
       </c>
       <c r="G39">
-        <v>314.885108618069</v>
+        <v>304.679783904627</v>
       </c>
       <c r="H39">
-        <v>314.5504531860352</v>
+        <v>303.4268295288086</v>
       </c>
       <c r="I39">
-        <v>315.0258534749349</v>
+        <v>306.6662048339844</v>
       </c>
       <c r="L39">
-        <v>45.68072862564285</v>
+        <v>44.62387436387127</v>
       </c>
       <c r="M39">
-        <v>45.44276155532226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>43.92525523824089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>312.5810241699219</v>
+        <v>300.9826049804688</v>
       </c>
       <c r="C40">
-        <v>320.5486145019531</v>
+        <v>302.895751953125</v>
       </c>
       <c r="D40">
-        <v>312.5810241699219</v>
+        <v>300.7723693847656</v>
       </c>
       <c r="E40">
-        <v>316.7369689941406</v>
+        <v>302.0036315917969</v>
       </c>
       <c r="F40">
-        <v>68919104</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>315.0534595613482</v>
+        <v>304.4364973307333</v>
       </c>
       <c r="H40">
-        <v>314.5245986938477</v>
+        <v>303.212045288086</v>
       </c>
       <c r="I40">
-        <v>315.0812784830729</v>
+        <v>305.9976338704427</v>
       </c>
       <c r="L40">
-        <v>55.25731447153142</v>
+        <v>46.98110902713824</v>
       </c>
       <c r="M40">
-        <v>51.82259315552402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>45.48821370279579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>317.0144348144531</v>
+        <v>301.9839172363281</v>
       </c>
       <c r="C41">
-        <v>332.7492065429688</v>
+        <v>302.336181640625</v>
       </c>
       <c r="D41">
-        <v>317.0144348144531</v>
+        <v>299.8354187011719</v>
       </c>
       <c r="E41">
-        <v>323.7587890625</v>
+        <v>299.8354187011719</v>
       </c>
       <c r="F41">
-        <v>329485056</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>315.844853152362</v>
+        <v>304.0182174553187</v>
       </c>
       <c r="H41">
-        <v>314.7569885253906</v>
+        <v>302.8265426635742</v>
       </c>
       <c r="I41">
-        <v>315.2527079264323</v>
+        <v>305.3926015218099</v>
       </c>
       <c r="L41">
-        <v>66.36681619165725</v>
+        <v>42.66862444733792</v>
       </c>
       <c r="M41">
-        <v>60.17504722323952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>42.77818841930023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>323.7611694335937</v>
+        <v>299.8423461914062</v>
       </c>
       <c r="C42">
-        <v>323.7611694335937</v>
+        <v>301.0113525390625</v>
       </c>
       <c r="D42">
-        <v>301.419189453125</v>
+        <v>298.2168273925781</v>
       </c>
       <c r="E42">
-        <v>316.8597717285156</v>
+        <v>299.1258239746094</v>
       </c>
       <c r="F42">
-        <v>366831360</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>315.9371184774669</v>
+        <v>303.5734544116178</v>
       </c>
       <c r="H42">
-        <v>314.4750823974609</v>
+        <v>302.4477554321289</v>
       </c>
       <c r="I42">
-        <v>315.4112945556641</v>
+        <v>304.721083577474</v>
       </c>
       <c r="L42">
-        <v>52.07488505698294</v>
+        <v>41.27373732049956</v>
       </c>
       <c r="M42">
-        <v>50.84758988656817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>41.89842619361286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>317.0716857910156</v>
+        <v>299.208984375</v>
       </c>
       <c r="C43">
-        <v>321.0091857910156</v>
+        <v>299.4971618652344</v>
       </c>
       <c r="D43">
-        <v>312.4590759277344</v>
+        <v>290.1220397949219</v>
       </c>
       <c r="E43">
-        <v>314.5132141113281</v>
+        <v>294.5093688964844</v>
       </c>
       <c r="F43">
-        <v>111083008</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>315.8076726259998</v>
+        <v>302.7494466375148</v>
       </c>
       <c r="H43">
-        <v>314.3055770874024</v>
+        <v>301.71533203125</v>
       </c>
       <c r="I43">
-        <v>315.4228190104167</v>
+        <v>304.1009592692057</v>
       </c>
       <c r="L43">
-        <v>48.1104959543753</v>
+        <v>33.30498359644013</v>
       </c>
       <c r="M43">
-        <v>48.11570524359664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36.62170232759561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>314.5517883300781</v>
+        <v>294.8074340820312</v>
       </c>
       <c r="C44">
-        <v>318.7286071777344</v>
+        <v>298.1128234863281</v>
       </c>
       <c r="D44">
-        <v>314.4246826171875</v>
+        <v>293.7643737792969</v>
       </c>
       <c r="E44">
-        <v>316.6611022949219</v>
+        <v>297.7154235839844</v>
       </c>
       <c r="F44">
-        <v>23357312</v>
+        <v>21124032</v>
       </c>
       <c r="G44">
-        <v>315.8852571413563</v>
+        <v>302.2918081781029</v>
       </c>
       <c r="H44">
-        <v>314.3498458862305</v>
+        <v>301.279524230957</v>
       </c>
       <c r="I44">
-        <v>315.5158396402995</v>
+        <v>303.5429158528646</v>
       </c>
       <c r="L44">
-        <v>51.8825952612716</v>
+        <v>42.04692565425663</v>
       </c>
       <c r="M44">
-        <v>50.72534583410545</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>42.07753094600706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>316.6244506835937</v>
+        <v>297.7926330566406</v>
       </c>
       <c r="C45">
-        <v>317.6501159667969</v>
+        <v>309.6028747558594</v>
       </c>
       <c r="D45">
-        <v>312.1454467773437</v>
+        <v>293.0782165527344</v>
       </c>
       <c r="E45">
-        <v>317.4837036132812</v>
+        <v>305.0428466796875</v>
       </c>
       <c r="F45">
-        <v>60302592</v>
+        <v>142977856</v>
       </c>
       <c r="G45">
-        <v>316.0305704569859</v>
+        <v>302.5419025873378</v>
       </c>
       <c r="H45">
-        <v>314.414860534668</v>
+        <v>301.2316162109375</v>
       </c>
       <c r="I45">
-        <v>315.5717753092448</v>
+        <v>303.1301818847656</v>
       </c>
       <c r="L45">
-        <v>53.34390487225576</v>
+        <v>56.65483501966866</v>
       </c>
       <c r="M45">
-        <v>51.72675980760864</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>52.2043595829679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>317.4079284667969</v>
+        <v>305.2237854003906</v>
       </c>
       <c r="C46">
-        <v>322.2576293945312</v>
+        <v>306.4862670898437</v>
       </c>
       <c r="D46">
-        <v>317.11962890625</v>
+        <v>302.6475219726562</v>
       </c>
       <c r="E46">
-        <v>318.6321105957031</v>
+        <v>306.4862670898437</v>
       </c>
       <c r="F46">
-        <v>37350272</v>
+        <v>55262336</v>
       </c>
       <c r="G46">
-        <v>316.2670741059601</v>
+        <v>302.9004811784746</v>
       </c>
       <c r="H46">
-        <v>314.7257781982422</v>
+        <v>301.2242462158203</v>
       </c>
       <c r="I46">
-        <v>315.5759104410807</v>
+        <v>303.0720733642578</v>
       </c>
       <c r="L46">
-        <v>55.46798706306026</v>
+        <v>58.94802350718587</v>
       </c>
       <c r="M46">
-        <v>53.15801303095833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>53.91368456204971</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>318.678955078125</v>
+        <v>306.6236267089844</v>
       </c>
       <c r="C47">
-        <v>323.8224792480469</v>
+        <v>308.5165710449219</v>
       </c>
       <c r="D47">
-        <v>318.0285339355469</v>
+        <v>303.5916442871094</v>
       </c>
       <c r="E47">
-        <v>318.0285339355469</v>
+        <v>306.9240417480469</v>
       </c>
       <c r="F47">
-        <v>18413568</v>
+        <v>45867776</v>
       </c>
       <c r="G47">
-        <v>316.4272068177408</v>
+        <v>303.2662594120721</v>
       </c>
       <c r="H47">
-        <v>315.1420303344727</v>
+        <v>301.4246627807617</v>
       </c>
       <c r="I47">
-        <v>315.6136983235677</v>
+        <v>303.1662109375</v>
       </c>
       <c r="L47">
-        <v>54.01400696621241</v>
+        <v>59.67592696635346</v>
       </c>
       <c r="M47">
-        <v>52.28066396439937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>54.44580166916624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>317.9522094726562</v>
+        <v>307.0512390136719</v>
       </c>
       <c r="C48">
-        <v>321.8255310058594</v>
+        <v>316.031982421875</v>
       </c>
       <c r="D48">
-        <v>316.8357238769531</v>
+        <v>307.0512390136719</v>
       </c>
       <c r="E48">
-        <v>319.7767944335937</v>
+        <v>314.5095520019531</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>131837312</v>
       </c>
       <c r="G48">
-        <v>316.7317147828183</v>
+        <v>304.2883769202431</v>
       </c>
       <c r="H48">
-        <v>315.6023696899414</v>
+        <v>302.4465805053711</v>
       </c>
       <c r="I48">
-        <v>315.6474497477213</v>
+        <v>303.4006917317708</v>
       </c>
       <c r="L48">
-        <v>57.63286374128994</v>
+        <v>70.03357857787121</v>
       </c>
       <c r="M48">
-        <v>54.61710213832986</v>
+        <v>62.52083013325952</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2386,34 +2395,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>319.7687683105469</v>
+        <v>314.5437316894531</v>
       </c>
       <c r="C49">
-        <v>321.4183959960937</v>
+        <v>316.7200622558594</v>
       </c>
       <c r="D49">
-        <v>318.4654235839844</v>
+        <v>305.87939453125</v>
       </c>
       <c r="E49">
-        <v>318.5663146972656</v>
+        <v>306.7544860839844</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>98273152</v>
       </c>
       <c r="G49">
-        <v>316.8984965932226</v>
+        <v>304.5125686624014</v>
       </c>
       <c r="H49">
-        <v>316.0336135864258</v>
+        <v>302.8348236083984</v>
       </c>
       <c r="I49">
-        <v>315.7342122395833</v>
+        <v>303.3814483642578</v>
       </c>
       <c r="L49">
-        <v>54.30410451037577</v>
+        <v>54.06215930487085</v>
       </c>
       <c r="M49">
-        <v>52.69333864242976</v>
+        <v>52.31148118364526</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2421,34 +2430,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>318.5760803222656</v>
+        <v>306.9653625488281</v>
       </c>
       <c r="C50">
-        <v>323.5708312988281</v>
+        <v>309.1334838867188</v>
       </c>
       <c r="D50">
-        <v>318.5760803222656</v>
+        <v>303.0772399902344</v>
       </c>
       <c r="E50">
-        <v>323.5708312988281</v>
+        <v>309.1334838867188</v>
       </c>
       <c r="F50">
-        <v>9414272</v>
+        <v>56503936</v>
       </c>
       <c r="G50">
-        <v>317.5050724755504</v>
+        <v>304.9326518646121</v>
       </c>
       <c r="H50">
-        <v>316.5939392089844</v>
+        <v>303.3225357055664</v>
       </c>
       <c r="I50">
-        <v>315.9447713216146</v>
+        <v>303.4759206136068</v>
       </c>
       <c r="L50">
-        <v>63.98038384950672</v>
+        <v>57.41386937183461</v>
       </c>
       <c r="M50">
-        <v>59.10642896841708</v>
+        <v>54.75244669435006</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2456,34 +2465,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>323.6202392578125</v>
+        <v>309.0535278320312</v>
       </c>
       <c r="C51">
-        <v>327.0423278808594</v>
+        <v>309.9161682128906</v>
       </c>
       <c r="D51">
-        <v>320.686767578125</v>
+        <v>306.302001953125</v>
       </c>
       <c r="E51">
-        <v>322.0607604980469</v>
+        <v>308.7047119140625</v>
       </c>
       <c r="F51">
-        <v>93417728</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>317.9192259321409</v>
+        <v>305.2755664145621</v>
       </c>
       <c r="H51">
-        <v>317.1048049926758</v>
+        <v>303.6730850219727</v>
       </c>
       <c r="I51">
-        <v>316.0430969238281</v>
+        <v>303.5145619710286</v>
       </c>
       <c r="L51">
-        <v>59.68977573188596</v>
+        <v>56.57688040257362</v>
       </c>
       <c r="M51">
-        <v>56.61253756189479</v>
+        <v>54.21383599184377</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2491,34 +2500,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>322.0885314941406</v>
+        <v>308.6283264160156</v>
       </c>
       <c r="C52">
-        <v>323.3590698242188</v>
+        <v>312.6865844726562</v>
       </c>
       <c r="D52">
-        <v>317.8409118652344</v>
+        <v>305.8671875</v>
       </c>
       <c r="E52">
-        <v>317.9863891601562</v>
+        <v>312.0197448730469</v>
       </c>
       <c r="F52">
-        <v>27940608</v>
+        <v>28375808</v>
       </c>
       <c r="G52">
-        <v>317.9253316801423</v>
+        <v>305.8886735471516</v>
       </c>
       <c r="H52">
-        <v>317.2852294921875</v>
+        <v>303.8742263793945</v>
       </c>
       <c r="I52">
-        <v>315.8927134195964</v>
+        <v>303.6918345133464</v>
       </c>
       <c r="L52">
-        <v>49.59443896561435</v>
+        <v>61.46330665361983</v>
       </c>
       <c r="M52">
-        <v>50.42983510080571</v>
+        <v>57.68010433515712</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2526,34 +2535,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>318.0278625488281</v>
+        <v>311.9541015625</v>
       </c>
       <c r="C53">
-        <v>321.7919006347656</v>
+        <v>312.6231994628906</v>
       </c>
       <c r="D53">
-        <v>317.7903747558594</v>
+        <v>307.8023681640625</v>
       </c>
       <c r="E53">
-        <v>319.2713623046875</v>
+        <v>308.5808410644531</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>14016000</v>
       </c>
       <c r="G53">
-        <v>318.0476981005555</v>
+        <v>306.1334160487245</v>
       </c>
       <c r="H53">
-        <v>317.2878875732422</v>
+        <v>304.0779251098633</v>
       </c>
       <c r="I53">
-        <v>315.9383148193359</v>
+        <v>303.6726013183594</v>
       </c>
       <c r="L53">
-        <v>52.4479284139384</v>
+        <v>54.32849225377721</v>
       </c>
       <c r="M53">
-        <v>52.20274556020539</v>
+        <v>53.18219172347312</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2561,34 +2570,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>319.274169921875</v>
+        <v>308.5706481933594</v>
       </c>
       <c r="C54">
-        <v>319.8733825683594</v>
+        <v>311.0128173828125</v>
       </c>
       <c r="D54">
-        <v>312.5243835449219</v>
+        <v>307.1098937988281</v>
       </c>
       <c r="E54">
-        <v>313.1130981445312</v>
+        <v>310.596435546875</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>317.5990981045533</v>
+        <v>306.5391450940108</v>
       </c>
       <c r="H54">
-        <v>317.0571807861328</v>
+        <v>304.6562683105469</v>
       </c>
       <c r="I54">
-        <v>315.849560546875</v>
+        <v>303.8114298502604</v>
       </c>
       <c r="L54">
-        <v>40.18317432705859</v>
+        <v>57.57574879237943</v>
       </c>
       <c r="M54">
-        <v>44.06808298024568</v>
+        <v>55.37851763884944</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2596,34 +2605,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>313.7745666503906</v>
+        <v>310.5572204589844</v>
       </c>
       <c r="C55">
-        <v>315.1944274902344</v>
+        <v>312.2145080566406</v>
       </c>
       <c r="D55">
-        <v>310.6506652832031</v>
+        <v>305.1863098144531</v>
       </c>
       <c r="E55">
-        <v>314.4567260742188</v>
+        <v>305.3770751953125</v>
       </c>
       <c r="F55">
-        <v>24602624</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>317.3134279199774</v>
+        <v>306.4335023759473</v>
       </c>
       <c r="H55">
-        <v>316.8210311889649</v>
+        <v>304.7020324707031</v>
       </c>
       <c r="I55">
-        <v>315.7920043945313</v>
+        <v>303.7906321207682</v>
       </c>
       <c r="L55">
-        <v>43.43021879239999</v>
+        <v>47.69649088964662</v>
       </c>
       <c r="M55">
-        <v>46.04366047164029</v>
+        <v>48.97186528937913</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2631,34 +2640,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>314.4426879882812</v>
+        <v>305.3144836425781</v>
       </c>
       <c r="C56">
-        <v>318.248291015625</v>
+        <v>306.65283203125</v>
       </c>
       <c r="D56">
-        <v>314.4426879882812</v>
+        <v>298.5123291015625</v>
       </c>
       <c r="E56">
-        <v>317.4248657226562</v>
+        <v>300.6673889160156</v>
       </c>
       <c r="F56">
-        <v>754048</v>
+        <v>34373760</v>
       </c>
       <c r="G56">
-        <v>317.3235586293118</v>
+        <v>305.9093102432263</v>
       </c>
       <c r="H56">
-        <v>317.2258148193359</v>
+        <v>304.5063034057617</v>
       </c>
       <c r="I56">
-        <v>315.9590413411458</v>
+        <v>303.5917561848958</v>
       </c>
       <c r="L56">
-        <v>50.15453810371869</v>
+        <v>40.62091699957004</v>
       </c>
       <c r="M56">
-        <v>50.2260676273383</v>
+        <v>44.02276219624462</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2666,34 +2675,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>317.4951782226562</v>
+        <v>300.6817932128906</v>
       </c>
       <c r="C57">
-        <v>317.8272705078125</v>
+        <v>302.2825622558594</v>
       </c>
       <c r="D57">
-        <v>306.4508361816406</v>
+        <v>290.7372741699219</v>
       </c>
       <c r="E57">
-        <v>308.2295227050781</v>
+        <v>296.55810546875</v>
       </c>
       <c r="F57">
-        <v>96039040</v>
+        <v>64471296</v>
       </c>
       <c r="G57">
-        <v>316.4968280907451</v>
+        <v>305.0592007182739</v>
       </c>
       <c r="H57">
-        <v>317.0866561889649</v>
+        <v>304.2591857910156</v>
       </c>
       <c r="I57">
-        <v>315.9099090576172</v>
+        <v>303.3798360188802</v>
       </c>
       <c r="L57">
-        <v>35.46280476836922</v>
+        <v>35.45778231737071</v>
       </c>
       <c r="M57">
-        <v>39.90585324900236</v>
+        <v>40.20492091360961</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2701,34 +2710,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>308.2082214355469</v>
+        <v>296.6254272460937</v>
       </c>
       <c r="C58">
-        <v>308.8217163085937</v>
+        <v>297.2929077148437</v>
       </c>
       <c r="D58">
-        <v>301.3959655761719</v>
+        <v>291.5197448730469</v>
       </c>
       <c r="E58">
-        <v>304.0999145507812</v>
+        <v>295.9539489746094</v>
       </c>
       <c r="F58">
-        <v>23671168</v>
+        <v>2940544</v>
       </c>
       <c r="G58">
-        <v>315.3698359507484</v>
+        <v>304.2314505597589</v>
       </c>
       <c r="H58">
-        <v>316.6875717163086</v>
+        <v>304.0737442016601</v>
       </c>
       <c r="I58">
-        <v>315.6942392985026</v>
+        <v>303.4425944010417</v>
       </c>
       <c r="L58">
-        <v>30.89099517916753</v>
+        <v>34.72769375371109</v>
       </c>
       <c r="M58">
-        <v>36.29861226077607</v>
+        <v>39.66033674616276</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2736,34 +2745,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>304.1527709960937</v>
+        <v>295.9718017578125</v>
       </c>
       <c r="C59">
-        <v>307.4751281738281</v>
+        <v>299.3934631347656</v>
       </c>
       <c r="D59">
-        <v>303.1456298828125</v>
+        <v>295.5996704101562</v>
       </c>
       <c r="E59">
-        <v>307.4751281738281</v>
+        <v>299.3934631347656</v>
       </c>
       <c r="F59">
-        <v>1480704</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>314.6521352437557</v>
+        <v>303.7916335211231</v>
       </c>
       <c r="H59">
-        <v>316.4352951049805</v>
+        <v>303.9946029663086</v>
       </c>
       <c r="I59">
-        <v>315.6120290120443</v>
+        <v>303.4560557047526</v>
       </c>
       <c r="L59">
-        <v>38.21491595481629</v>
+        <v>42.33261019437237</v>
       </c>
       <c r="M59">
-        <v>40.99340289560337</v>
+        <v>44.28706678540701</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2771,34 +2780,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>307.4607238769531</v>
+        <v>299.3885498046875</v>
       </c>
       <c r="C60">
-        <v>307.935791015625</v>
+        <v>300.2684020996094</v>
       </c>
       <c r="D60">
-        <v>304.6884765625</v>
+        <v>297.6755981445312</v>
       </c>
       <c r="E60">
-        <v>307.331787109375</v>
+        <v>298.9530029296875</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>313.9866490497211</v>
+        <v>303.3517580128107</v>
       </c>
       <c r="H60">
-        <v>315.9650360107422</v>
+        <v>303.8420715332031</v>
       </c>
       <c r="I60">
-        <v>315.4442779541016</v>
+        <v>303.4418477376302</v>
       </c>
       <c r="L60">
-        <v>38.02239837700245</v>
+        <v>41.63377720219501</v>
       </c>
       <c r="M60">
-        <v>40.85569021525801</v>
+        <v>43.8236475479263</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2806,34 +2815,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>307.2956237792969</v>
+        <v>299.0031433105469</v>
       </c>
       <c r="C61">
-        <v>308.3822021484375</v>
+        <v>301.7714538574219</v>
       </c>
       <c r="D61">
-        <v>305.7536010742188</v>
+        <v>298.1998596191406</v>
       </c>
       <c r="E61">
-        <v>306.29931640625</v>
+        <v>301.7714538574219</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>313.2878006275873</v>
+        <v>303.2080939986844</v>
       </c>
       <c r="H61">
-        <v>315.0920623779297</v>
+        <v>303.9388732910156</v>
       </c>
       <c r="I61">
-        <v>315.2594736735026</v>
+        <v>303.444438680013</v>
       </c>
       <c r="L61">
-        <v>36.5311154436205</v>
+        <v>47.83316959740777</v>
       </c>
       <c r="M61">
-        <v>39.81808504898596</v>
+        <v>47.60198270572096</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2841,34 +2850,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>306.2918395996094</v>
+        <v>301.7714538574219</v>
       </c>
       <c r="C62">
-        <v>307.8885192871094</v>
+        <v>302.8119812011719</v>
       </c>
       <c r="D62">
-        <v>305.6965942382812</v>
+        <v>300.8610229492188</v>
       </c>
       <c r="E62">
-        <v>307.5454711914062</v>
+        <v>302.6395874023437</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>312.7657706788436</v>
+        <v>303.1564115808353</v>
       </c>
       <c r="H62">
-        <v>314.6263473510742</v>
+        <v>304.1145614624023</v>
       </c>
       <c r="I62">
-        <v>315.0317260742187</v>
+        <v>303.2658610026041</v>
       </c>
       <c r="L62">
-        <v>39.7402970975659</v>
+        <v>49.68505094511818</v>
       </c>
       <c r="M62">
-        <v>41.74126344283759</v>
+        <v>48.74549214477098</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2876,34 +2885,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>307.7940673828125</v>
+        <v>302.4674987792969</v>
       </c>
       <c r="C63">
-        <v>308.8296203613281</v>
+        <v>302.9240417480469</v>
       </c>
       <c r="D63">
-        <v>305.9303283691406</v>
+        <v>301.8526916503906</v>
       </c>
       <c r="E63">
-        <v>306.7015686035156</v>
+        <v>302.2369995117188</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>312.2144795810865</v>
+        <v>303.072828665461</v>
       </c>
       <c r="H63">
-        <v>314.2357650756836</v>
+        <v>304.5009429931641</v>
       </c>
       <c r="I63">
-        <v>314.6145050048828</v>
+        <v>303.1901987711589</v>
       </c>
       <c r="L63">
-        <v>38.26621460094324</v>
+        <v>48.78160640571798</v>
       </c>
       <c r="M63">
-        <v>40.79061736743871</v>
+        <v>48.21994645695193</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2911,597 +2920,594 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>306.7071838378906</v>
+        <v>302.2271118164062</v>
       </c>
       <c r="C64">
-        <v>309.1578369140625</v>
+        <v>302.7807006835937</v>
       </c>
       <c r="D64">
-        <v>306.7071838378906</v>
+        <v>300.4049987792969</v>
       </c>
       <c r="E64">
-        <v>309.1578369140625</v>
+        <v>302.0632934570312</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>311.9366029749934</v>
+        <v>302.9810527374219</v>
       </c>
       <c r="H64">
-        <v>313.8606018066406</v>
+        <v>304.7183364868164</v>
       </c>
       <c r="I64">
-        <v>314.3288584391276</v>
+        <v>303.2913228352865</v>
       </c>
       <c r="L64">
-        <v>44.95221691158731</v>
+        <v>48.35480858082649</v>
       </c>
       <c r="M64">
-        <v>44.73578485833647</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>47.97958136041292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>309.1509399414062</v>
+        <v>302.1174621582031</v>
       </c>
       <c r="C65">
-        <v>309.8823852539062</v>
+        <v>305.1105651855469</v>
       </c>
       <c r="D65">
-        <v>306.0275573730469</v>
+        <v>301.2388305664062</v>
       </c>
       <c r="E65">
-        <v>306.4315795898437</v>
+        <v>304.1261596679688</v>
       </c>
       <c r="F65">
-        <v>3475904</v>
+        <v>7858880</v>
       </c>
       <c r="G65">
-        <v>311.4361463036162</v>
+        <v>303.0851533674716</v>
       </c>
       <c r="H65">
-        <v>313.3079956054688</v>
+        <v>304.6725021362305</v>
       </c>
       <c r="I65">
-        <v>313.9039204915364</v>
+        <v>303.2801350911458</v>
       </c>
       <c r="L65">
-        <v>39.59729984417022</v>
+        <v>53.75979357070844</v>
       </c>
       <c r="M65">
-        <v>41.43569852851454</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>51.09717439683208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>306.4395751953125</v>
+        <v>304.1225280761719</v>
       </c>
       <c r="C66">
-        <v>308.0474243164062</v>
+        <v>305.2196350097656</v>
       </c>
       <c r="D66">
-        <v>305.055908203125</v>
+        <v>303.2882080078125</v>
       </c>
       <c r="E66">
-        <v>306.0010070800781</v>
+        <v>303.6416320800781</v>
       </c>
       <c r="F66">
-        <v>9350080</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>310.94204273784</v>
+        <v>303.1357423413449</v>
       </c>
       <c r="H66">
-        <v>312.6764404296875</v>
+        <v>304.5302703857422</v>
       </c>
       <c r="I66">
-        <v>313.7929809570313</v>
+        <v>303.2487904866537</v>
       </c>
       <c r="L66">
-        <v>38.77656486471297</v>
+        <v>52.31310494074868</v>
       </c>
       <c r="M66">
-        <v>40.9222535411557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>50.33414649453078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>305.9798889160156</v>
+        <v>303.5883178710937</v>
       </c>
       <c r="C67">
-        <v>306.78662109375</v>
+        <v>306.5023193359375</v>
       </c>
       <c r="D67">
-        <v>303.5908813476562</v>
+        <v>303.2189025878906</v>
       </c>
       <c r="E67">
-        <v>306.6336669921875</v>
+        <v>305.7579345703125</v>
       </c>
       <c r="F67">
-        <v>28522048</v>
+        <v>8884608</v>
       </c>
       <c r="G67">
-        <v>310.5503722155079</v>
+        <v>303.3741234530692</v>
       </c>
       <c r="H67">
-        <v>312.1066970825195</v>
+        <v>304.4719650268555</v>
       </c>
       <c r="I67">
-        <v>313.6470133463542</v>
+        <v>303.3907063802083</v>
       </c>
       <c r="L67">
-        <v>40.80471918446953</v>
+        <v>57.88231641153552</v>
       </c>
       <c r="M67">
-        <v>42.05835925550861</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>53.59374404057245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>306.6680603027344</v>
+        <v>305.7184448242188</v>
       </c>
       <c r="C68">
-        <v>307.0313720703125</v>
+        <v>306.4322814941406</v>
       </c>
       <c r="D68">
-        <v>301.0862121582031</v>
+        <v>303.6557922363281</v>
       </c>
       <c r="E68">
-        <v>302.9157104492188</v>
+        <v>303.9200439453125</v>
       </c>
       <c r="F68">
-        <v>32609600</v>
+        <v>8154432</v>
       </c>
       <c r="G68">
-        <v>309.8563120549362</v>
+        <v>303.4237525887277</v>
       </c>
       <c r="H68">
-        <v>311.2636428833008</v>
+        <v>303.9424896240234</v>
       </c>
       <c r="I68">
-        <v>313.3414835611979</v>
+        <v>303.5326151529948</v>
       </c>
       <c r="L68">
-        <v>33.47357285085015</v>
+        <v>51.95428523201856</v>
       </c>
       <c r="M68">
-        <v>37.49497941915556</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>50.49435891460073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>302.9035034179688</v>
+        <v>303.9454040527344</v>
       </c>
       <c r="C69">
-        <v>302.9035034179688</v>
+        <v>305.1669311523437</v>
       </c>
       <c r="D69">
-        <v>290.8804016113281</v>
+        <v>299.0142517089844</v>
       </c>
       <c r="E69">
-        <v>294.0711975097656</v>
+        <v>299.0142517089844</v>
       </c>
       <c r="F69">
-        <v>119950080</v>
+        <v>32606208</v>
       </c>
       <c r="G69">
-        <v>308.4213016417388</v>
+        <v>303.0228888723874</v>
       </c>
       <c r="H69">
-        <v>310.0388870239258</v>
+        <v>303.5554779052734</v>
       </c>
       <c r="I69">
-        <v>312.7265014648438</v>
+        <v>303.4672139485677</v>
       </c>
       <c r="L69">
-        <v>22.60473601135779</v>
+        <v>39.7342682969169</v>
       </c>
       <c r="M69">
-        <v>29.33962047975979</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>43.29671203080716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>294.0525207519531</v>
+        <v>299.0258178710937</v>
       </c>
       <c r="C70">
-        <v>299.8212280273437</v>
+        <v>309.6148986816406</v>
       </c>
       <c r="D70">
-        <v>293.5421447753906</v>
+        <v>299.0258178710937</v>
       </c>
       <c r="E70">
-        <v>298.9896240234375</v>
+        <v>308.2871398925781</v>
       </c>
       <c r="F70">
-        <v>44002752</v>
+        <v>53323712</v>
       </c>
       <c r="G70">
-        <v>307.5638764037114</v>
+        <v>303.5014571469501</v>
       </c>
       <c r="H70">
-        <v>308.8098266601563</v>
+        <v>303.5131607055664</v>
       </c>
       <c r="I70">
-        <v>312.1349232991536</v>
+        <v>303.6766642252604</v>
       </c>
       <c r="L70">
-        <v>35.67202929328224</v>
+        <v>59.82712665475642</v>
       </c>
       <c r="M70">
-        <v>37.48300602783718</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>56.04942965892197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>298.9998168945312</v>
+        <v>308.3220825195312</v>
       </c>
       <c r="C71">
-        <v>300.5856323242188</v>
+        <v>318.8585815429688</v>
       </c>
       <c r="D71">
-        <v>297.3089599609375</v>
+        <v>308.3220825195312</v>
       </c>
       <c r="E71">
-        <v>299.3792419433594</v>
+        <v>315.3122863769531</v>
       </c>
       <c r="F71">
-        <v>18656832</v>
+        <v>214683584</v>
       </c>
       <c r="G71">
-        <v>306.8198187254976</v>
+        <v>304.5751688951322</v>
       </c>
       <c r="H71">
-        <v>307.6757507324219</v>
+        <v>303.8435394287109</v>
       </c>
       <c r="I71">
-        <v>311.3222717285156</v>
+        <v>304.1925598144531</v>
       </c>
       <c r="L71">
-        <v>36.62559452919564</v>
+        <v>68.71663328934952</v>
       </c>
       <c r="M71">
-        <v>38.09166714664136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>62.86368433273856</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>299.4324035644531</v>
+        <v>315.3205871582031</v>
       </c>
       <c r="C72">
-        <v>303.1268005371094</v>
+        <v>316.4499816894531</v>
       </c>
       <c r="D72">
-        <v>299.4324035644531</v>
+        <v>311.7695617675781</v>
       </c>
       <c r="E72">
-        <v>301.6937255859375</v>
+        <v>312.8917541503906</v>
       </c>
       <c r="F72">
-        <v>76696832</v>
+        <v>124237568</v>
       </c>
       <c r="G72">
-        <v>306.3538102582648</v>
+        <v>305.3312221001557</v>
       </c>
       <c r="H72">
-        <v>306.8611175537109</v>
+        <v>303.8871398925781</v>
       </c>
       <c r="I72">
-        <v>310.8167368570964</v>
+        <v>304.6514241536458</v>
       </c>
       <c r="L72">
-        <v>42.33786773994129</v>
+        <v>63.28818838492045</v>
       </c>
       <c r="M72">
-        <v>41.72149281077225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>59.44388071293381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>301.7345886230469</v>
+        <v>312.8319396972656</v>
       </c>
       <c r="C73">
-        <v>308.2834777832031</v>
+        <v>319.5900573730469</v>
       </c>
       <c r="D73">
-        <v>300.3829345703125</v>
+        <v>312.5022888183594</v>
       </c>
       <c r="E73">
-        <v>307.9969177246094</v>
+        <v>314.7082214355469</v>
       </c>
       <c r="F73">
-        <v>66899200</v>
+        <v>364697216</v>
       </c>
       <c r="G73">
-        <v>306.5031836642961</v>
+        <v>306.1836765851913</v>
       </c>
       <c r="H73">
-        <v>306.2973953247071</v>
+        <v>304.1935089111328</v>
       </c>
       <c r="I73">
-        <v>310.5995269775391</v>
+        <v>305.3247192382813</v>
       </c>
       <c r="L73">
-        <v>54.81575495170575</v>
+        <v>65.58353885939812</v>
       </c>
       <c r="M73">
-        <v>50.27261971902517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>61.15182369382809</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>308.0650634765625</v>
+        <v>314.5664367675781</v>
       </c>
       <c r="C74">
-        <v>308.1500549316406</v>
+        <v>318.6239929199219</v>
       </c>
       <c r="D74">
-        <v>304.5068664550781</v>
+        <v>314.2677001953125</v>
       </c>
       <c r="E74">
-        <v>304.5068664550781</v>
+        <v>318.0330200195312</v>
       </c>
       <c r="F74">
-        <v>24807808</v>
+        <v>83231104</v>
       </c>
       <c r="G74">
-        <v>306.3217002816399</v>
+        <v>307.2608896246767</v>
       </c>
       <c r="H74">
-        <v>305.8670837402344</v>
+        <v>304.5653381347656</v>
       </c>
       <c r="I74">
-        <v>310.1943857828776</v>
+        <v>306.0019724527995</v>
       </c>
       <c r="L74">
-        <v>48.30453921703234</v>
+        <v>69.50911578596492</v>
       </c>
       <c r="M74">
-        <v>46.22801466706314</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>64.12949597956289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>304.4752502441406</v>
+        <v>318.0330200195312</v>
       </c>
       <c r="C75">
-        <v>304.8103942871094</v>
+        <v>318.6836853027344</v>
       </c>
       <c r="D75">
-        <v>298.9388732910156</v>
+        <v>313.1257629394531</v>
       </c>
       <c r="E75">
-        <v>299.0295715332031</v>
+        <v>317.7283020019531</v>
       </c>
       <c r="F75">
-        <v>8376704</v>
+        <v>39640448</v>
       </c>
       <c r="G75">
-        <v>305.6587794863275</v>
+        <v>308.2124725680655</v>
       </c>
       <c r="H75">
-        <v>305.0957260131836</v>
+        <v>305.1828994750977</v>
       </c>
       <c r="I75">
-        <v>309.579248046875</v>
+        <v>306.4248209635417</v>
       </c>
       <c r="L75">
-        <v>39.93028825239752</v>
+        <v>68.70116170883749</v>
       </c>
       <c r="M75">
-        <v>40.69451955253786</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>63.64798257463295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>299.0420837402344</v>
+        <v>317.5467834472656</v>
       </c>
       <c r="C76">
-        <v>304.4812927246094</v>
+        <v>318.0791625976562</v>
       </c>
       <c r="D76">
-        <v>298.6620788574219</v>
+        <v>314.0261840820312</v>
       </c>
       <c r="E76">
-        <v>304.4617919921875</v>
+        <v>315.1390075683594</v>
       </c>
       <c r="F76">
-        <v>36907264</v>
+        <v>96584960</v>
       </c>
       <c r="G76">
-        <v>305.5499624414057</v>
+        <v>308.8421575680922</v>
       </c>
       <c r="H76">
-        <v>304.4475723266602</v>
+        <v>305.9064804077149</v>
       </c>
       <c r="I76">
-        <v>309.1069040934245</v>
+        <v>306.7132456461588</v>
       </c>
       <c r="L76">
-        <v>49.66629208658149</v>
+        <v>61.83071454305774</v>
       </c>
       <c r="M76">
-        <v>47.41708296727416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>59.55590929771886</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>304.4766540527344</v>
+        <v>315.244384765625</v>
       </c>
       <c r="C77">
-        <v>306.6708068847656</v>
+        <v>317.3765869140625</v>
       </c>
       <c r="D77">
-        <v>303.4023742675781</v>
+        <v>314.8137817382812</v>
       </c>
       <c r="E77">
-        <v>304.5819702148437</v>
+        <v>316.0374755859375</v>
       </c>
       <c r="F77">
-        <v>95528064</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>305.4619631480818</v>
+        <v>309.4962773878963</v>
       </c>
       <c r="H77">
-        <v>304.2651947021484</v>
+        <v>306.8804489135742</v>
       </c>
       <c r="I77">
-        <v>308.6586853027344</v>
+        <v>307.0170267740885</v>
       </c>
       <c r="L77">
-        <v>49.86851792512822</v>
+        <v>63.26480637960893</v>
       </c>
       <c r="M77">
-        <v>47.55871011792075</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>60.50478453903144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>304.6213073730469</v>
+        <v>316.03759765625</v>
       </c>
       <c r="C78">
-        <v>304.9863891601562</v>
+        <v>318.7459411621094</v>
       </c>
       <c r="D78">
-        <v>298.7511901855469</v>
+        <v>315.5406188964844</v>
       </c>
       <c r="E78">
-        <v>301.5004577636719</v>
+        <v>317.3496398925781</v>
       </c>
       <c r="F78">
-        <v>90996224</v>
+        <v>8741888</v>
       </c>
       <c r="G78">
-        <v>305.1018262949537</v>
+        <v>310.2102194337764</v>
       </c>
       <c r="H78">
-        <v>304.1352218627929</v>
+        <v>307.9502334594727</v>
       </c>
       <c r="I78">
-        <v>308.0494740804036</v>
+        <v>307.1116963704427</v>
       </c>
       <c r="L78">
-        <v>44.68921707070452</v>
+        <v>65.40064787841392</v>
       </c>
       <c r="M78">
-        <v>44.26641309791653</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>61.91028828016535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>301.4710998535156</v>
+        <v>317.3829956054688</v>
       </c>
       <c r="C79">
-        <v>302.101318359375</v>
+        <v>318.4729614257812</v>
       </c>
       <c r="D79">
-        <v>298.6671447753906</v>
+        <v>313.5428466796875</v>
       </c>
       <c r="E79">
-        <v>299.6627807617188</v>
+        <v>317.0020751953125</v>
       </c>
       <c r="F79">
-        <v>32348032</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>304.6073676101141</v>
+        <v>310.8276608666433</v>
       </c>
       <c r="H79">
-        <v>303.7446044921875</v>
+        <v>308.8306640625</v>
       </c>
       <c r="I79">
-        <v>307.4193562825521</v>
+        <v>307.4532826741536</v>
       </c>
       <c r="L79">
-        <v>41.77815346721372</v>
+        <v>64.28684393039121</v>
       </c>
       <c r="M79">
-        <v>42.38214867137732</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>61.28813691349976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>299.608642578125</v>
+        <v>316.9983520507812</v>
       </c>
       <c r="C80">
-        <v>301.8429260253906</v>
+        <v>317.772216796875</v>
       </c>
       <c r="D80">
-        <v>296.5199890136719</v>
+        <v>313.6207580566406</v>
       </c>
       <c r="E80">
-        <v>300.9762878417969</v>
+        <v>314.860595703125</v>
       </c>
       <c r="F80">
-        <v>93220608</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>304.277269449358</v>
+        <v>311.1942913063235</v>
       </c>
       <c r="H80">
-        <v>303.4268295288086</v>
+        <v>309.6260437011719</v>
       </c>
       <c r="I80">
-        <v>306.6662048339844</v>
+        <v>307.6441864013672</v>
       </c>
       <c r="L80">
-        <v>44.67601838232905</v>
+        <v>57.49919668620119</v>
       </c>
       <c r="M80">
-        <v>44.21012605331968</v>
+        <v>57.45690528905326</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3509,34 +3515,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>300.9826049804688</v>
+        <v>314.8484191894531</v>
       </c>
       <c r="C81">
-        <v>302.895751953125</v>
+        <v>317.28076171875</v>
       </c>
       <c r="D81">
-        <v>300.7723693847656</v>
+        <v>314.8484191894531</v>
       </c>
       <c r="E81">
-        <v>302.0036315917969</v>
+        <v>315.2159729003906</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>304.0705750986706</v>
+        <v>311.5598987239659</v>
       </c>
       <c r="H81">
-        <v>303.212045288086</v>
+        <v>310.2982696533203</v>
       </c>
       <c r="I81">
-        <v>305.9976338704427</v>
+        <v>307.8612284342448</v>
       </c>
       <c r="L81">
-        <v>46.99729083642196</v>
+        <v>58.32076755507777</v>
       </c>
       <c r="M81">
-        <v>45.66218412551765</v>
+        <v>57.92693623225869</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3544,34 +3550,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>301.9839172363281</v>
+        <v>315.1612243652344</v>
       </c>
       <c r="C82">
-        <v>302.336181640625</v>
+        <v>315.9275512695312</v>
       </c>
       <c r="D82">
-        <v>299.8354187011719</v>
+        <v>313.9970703125</v>
       </c>
       <c r="E82">
-        <v>299.8354187011719</v>
+        <v>314.6242980957031</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>303.6855608807162</v>
+        <v>311.8384804850329</v>
       </c>
       <c r="H82">
-        <v>302.8265426635742</v>
+        <v>310.8975051879883</v>
       </c>
       <c r="I82">
-        <v>305.3926015218099</v>
+        <v>307.948046875</v>
       </c>
       <c r="L82">
-        <v>42.7395315171232</v>
+        <v>56.28292515445685</v>
       </c>
       <c r="M82">
-        <v>43.11185551669652</v>
+        <v>56.80171728033012</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3579,34 +3585,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>299.8423461914062</v>
+        <v>314.6166381835937</v>
       </c>
       <c r="C83">
-        <v>301.0113525390625</v>
+        <v>314.8002319335937</v>
       </c>
       <c r="D83">
-        <v>298.2168273925781</v>
+        <v>308.9263305664062</v>
       </c>
       <c r="E83">
-        <v>299.1258239746094</v>
+        <v>308.9263305664062</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>24084160</v>
       </c>
       <c r="G83">
-        <v>303.2710393437974</v>
+        <v>311.5737395833396</v>
       </c>
       <c r="H83">
-        <v>302.4477554321289</v>
+        <v>311.2319717407227</v>
       </c>
       <c r="I83">
-        <v>304.721083577474</v>
+        <v>307.9595631917318</v>
       </c>
       <c r="L83">
-        <v>41.35994415330693</v>
+        <v>40.82727771420096</v>
       </c>
       <c r="M83">
-        <v>42.27958723983317</v>
+        <v>47.2774404006989</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3614,34 +3620,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>299.208984375</v>
+        <v>308.9229431152344</v>
       </c>
       <c r="C84">
-        <v>299.4971618652344</v>
+        <v>313.8898315429688</v>
       </c>
       <c r="D84">
-        <v>290.1220397949219</v>
+        <v>307.863037109375</v>
       </c>
       <c r="E84">
-        <v>294.5093688964844</v>
+        <v>313.3131103515625</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>99754944</v>
       </c>
       <c r="G84">
-        <v>302.4745238485871</v>
+        <v>311.7318641986326</v>
       </c>
       <c r="H84">
-        <v>301.71533203125</v>
+        <v>311.7944625854492</v>
       </c>
       <c r="I84">
-        <v>304.1009592692057</v>
+        <v>308.0501190185547</v>
       </c>
       <c r="L84">
-        <v>33.45599470163921</v>
+        <v>52.19687783406195</v>
       </c>
       <c r="M84">
-        <v>37.24240909535502</v>
+        <v>53.71239911467127</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3649,34 +3655,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>294.8074340820312</v>
+        <v>313.2999877929688</v>
       </c>
       <c r="C85">
-        <v>298.1128234863281</v>
+        <v>313.9859008789062</v>
       </c>
       <c r="D85">
-        <v>293.7643737792969</v>
+        <v>311.5762939453125</v>
       </c>
       <c r="E85">
-        <v>297.7154235839844</v>
+        <v>311.9809265136719</v>
       </c>
       <c r="F85">
-        <v>21124032</v>
+        <v>89472000</v>
       </c>
       <c r="G85">
-        <v>302.0418783699869</v>
+        <v>311.7545062272725</v>
       </c>
       <c r="H85">
-        <v>301.279524230957</v>
+        <v>312.1872009277344</v>
       </c>
       <c r="I85">
-        <v>303.5429158528646</v>
+        <v>308.2702473958333</v>
       </c>
       <c r="L85">
-        <v>42.10073750837748</v>
+        <v>48.98153781407641</v>
       </c>
       <c r="M85">
-        <v>42.37693036201107</v>
+        <v>51.6506853187012</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3684,34 +3690,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>297.7926330566406</v>
+        <v>311.9905700683594</v>
       </c>
       <c r="C86">
-        <v>309.6028747558594</v>
+        <v>312.1630859375</v>
       </c>
       <c r="D86">
-        <v>293.0782165527344</v>
+        <v>308.0719299316406</v>
       </c>
       <c r="E86">
-        <v>305.0428466796875</v>
+        <v>308.1842651367188</v>
       </c>
       <c r="F86">
-        <v>142977856</v>
+        <v>6044672</v>
       </c>
       <c r="G86">
-        <v>302.3146936708687</v>
+        <v>311.429938855404</v>
       </c>
       <c r="H86">
-        <v>301.2316162109375</v>
+        <v>312.4143325805664</v>
       </c>
       <c r="I86">
-        <v>303.1301818847656</v>
+        <v>308.5208099365234</v>
       </c>
       <c r="L86">
-        <v>56.59799361680117</v>
+        <v>40.9030775755955</v>
       </c>
       <c r="M86">
-        <v>52.03560784466082</v>
+        <v>46.20710121381842</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3719,34 +3725,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>305.2237854003906</v>
+        <v>308.1819763183594</v>
       </c>
       <c r="C87">
-        <v>306.4862670898437</v>
+        <v>310.3981018066406</v>
       </c>
       <c r="D87">
-        <v>302.6475219726562</v>
+        <v>307.3587646484375</v>
       </c>
       <c r="E87">
-        <v>306.4862670898437</v>
+        <v>309.1008911132812</v>
       </c>
       <c r="F87">
-        <v>55262336</v>
+        <v>21251200</v>
       </c>
       <c r="G87">
-        <v>302.6939276180482</v>
+        <v>311.2182072424837</v>
       </c>
       <c r="H87">
-        <v>301.2242462158203</v>
+        <v>312.5814804077148</v>
       </c>
       <c r="I87">
-        <v>303.0720733642578</v>
+        <v>308.9389027913411</v>
       </c>
       <c r="L87">
-        <v>58.87971688368098</v>
+        <v>43.43687778989032</v>
       </c>
       <c r="M87">
-        <v>53.68260063341616</v>
+        <v>47.64182509855821</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3754,34 +3760,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>306.6236267089844</v>
+        <v>309.0931091308594</v>
       </c>
       <c r="C88">
-        <v>308.5165710449219</v>
+        <v>309.7669982910156</v>
       </c>
       <c r="D88">
-        <v>303.5916442871094</v>
+        <v>305.7171630859375</v>
       </c>
       <c r="E88">
-        <v>306.9240417480469</v>
+        <v>309.2518005371094</v>
       </c>
       <c r="F88">
-        <v>45867776</v>
+        <v>34280064</v>
       </c>
       <c r="G88">
-        <v>303.0784834480481</v>
+        <v>311.0394429965406</v>
       </c>
       <c r="H88">
-        <v>301.4246627807617</v>
+        <v>312.8480682373047</v>
       </c>
       <c r="I88">
-        <v>303.1662109375</v>
+        <v>309.3821645100912</v>
       </c>
       <c r="L88">
-        <v>59.60431703048008</v>
+        <v>43.88251599655593</v>
       </c>
       <c r="M88">
-        <v>54.19630788728699</v>
+        <v>47.88825188064705</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3789,34 +3795,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>307.0512390136719</v>
+        <v>309.2518005371094</v>
       </c>
       <c r="C89">
-        <v>316.031982421875</v>
+        <v>312.1998596191406</v>
       </c>
       <c r="D89">
-        <v>307.0512390136719</v>
+        <v>308.5942077636719</v>
       </c>
       <c r="E89">
-        <v>314.5095520019531</v>
+        <v>311.2822265625</v>
       </c>
       <c r="F89">
-        <v>131837312</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>304.1176714984031</v>
+        <v>311.0615142298097</v>
       </c>
       <c r="H89">
-        <v>302.4465805053711</v>
+        <v>313.4614669799805</v>
       </c>
       <c r="I89">
-        <v>303.4006917317708</v>
+        <v>309.778456624349</v>
       </c>
       <c r="L89">
-        <v>69.93254288405001</v>
+        <v>49.86170077297144</v>
       </c>
       <c r="M89">
-        <v>62.05042411603182</v>
+        <v>51.21518135856827</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3824,34 +3830,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>314.5437316894531</v>
+        <v>311.2497253417969</v>
       </c>
       <c r="C90">
-        <v>316.7200622558594</v>
+        <v>312.357666015625</v>
       </c>
       <c r="D90">
-        <v>305.87939453125</v>
+        <v>310.4460754394531</v>
       </c>
       <c r="E90">
-        <v>306.7544860839844</v>
+        <v>311.55712890625</v>
       </c>
       <c r="F90">
-        <v>98273152</v>
+        <v>10428032</v>
       </c>
       <c r="G90">
-        <v>304.3573819152741</v>
+        <v>311.1065701094861</v>
       </c>
       <c r="H90">
-        <v>302.8348236083984</v>
+        <v>313.6249664306641</v>
       </c>
       <c r="I90">
-        <v>303.3814483642578</v>
+        <v>310.198594156901</v>
       </c>
       <c r="L90">
-        <v>54.04096323578421</v>
+        <v>50.66239308283772</v>
       </c>
       <c r="M90">
-        <v>52.19622546766315</v>
+        <v>51.66511102829439</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3859,34 +3865,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>306.9653625488281</v>
+        <v>311.6171569824219</v>
       </c>
       <c r="C91">
-        <v>309.1334838867188</v>
+        <v>315.1431884765625</v>
       </c>
       <c r="D91">
-        <v>303.0772399902344</v>
+        <v>310.2885131835937</v>
       </c>
       <c r="E91">
-        <v>309.1334838867188</v>
+        <v>314.9714050292969</v>
       </c>
       <c r="F91">
-        <v>56503936</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>304.7915730035872</v>
+        <v>311.4579187385598</v>
       </c>
       <c r="H91">
-        <v>303.3225357055664</v>
+        <v>313.6079223632813</v>
       </c>
       <c r="I91">
-        <v>303.4759206136068</v>
+        <v>310.6385925292969</v>
       </c>
       <c r="L91">
-        <v>57.38314606985356</v>
+        <v>59.66300983190485</v>
       </c>
       <c r="M91">
-        <v>54.57922694094356</v>
+        <v>56.97282654029593</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3894,34 +3900,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>309.0535278320312</v>
+        <v>314.9914855957031</v>
       </c>
       <c r="C92">
-        <v>309.9161682128906</v>
+        <v>314.9914855957031</v>
       </c>
       <c r="D92">
-        <v>306.302001953125</v>
+        <v>308.9279174804688</v>
       </c>
       <c r="E92">
-        <v>308.7047119140625</v>
+        <v>308.9279174804688</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>55929920</v>
       </c>
       <c r="G92">
-        <v>305.1473129045395</v>
+        <v>311.2279186241879</v>
       </c>
       <c r="H92">
-        <v>303.6730850219727</v>
+        <v>313.4097305297852</v>
       </c>
       <c r="I92">
-        <v>303.5145619710286</v>
+        <v>310.848203531901</v>
       </c>
       <c r="L92">
-        <v>56.54932742676326</v>
+        <v>43.76446633762231</v>
       </c>
       <c r="M92">
-        <v>54.05619927700136</v>
+        <v>47.11127133876316</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3929,34 +3935,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>308.6283264160156</v>
+        <v>308.90087890625</v>
       </c>
       <c r="C93">
-        <v>312.6865844726562</v>
+        <v>314.7270812988281</v>
       </c>
       <c r="D93">
-        <v>305.8671875</v>
+        <v>307.5998229980469</v>
       </c>
       <c r="E93">
-        <v>312.0197448730469</v>
+        <v>313.5182800292969</v>
       </c>
       <c r="F93">
-        <v>28375808</v>
+        <v>45895232</v>
       </c>
       <c r="G93">
-        <v>305.7720794471311</v>
+        <v>311.4361332973796</v>
       </c>
       <c r="H93">
-        <v>303.8742263793945</v>
+        <v>313.3502334594726</v>
       </c>
       <c r="I93">
-        <v>303.6918345133464</v>
+        <v>311.2242462158203</v>
       </c>
       <c r="L93">
-        <v>61.42472723132246</v>
+        <v>54.19442130868341</v>
       </c>
       <c r="M93">
-        <v>57.45113390253685</v>
+        <v>53.67085094029277</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3964,34 +3970,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>311.9541015625</v>
+        <v>313.2928771972656</v>
       </c>
       <c r="C94">
-        <v>312.6231994628906</v>
+        <v>313.2928771972656</v>
       </c>
       <c r="D94">
-        <v>307.8023681640625</v>
+        <v>308.4205932617188</v>
       </c>
       <c r="E94">
-        <v>308.5808410644531</v>
+        <v>310.4491882324219</v>
       </c>
       <c r="F94">
-        <v>14016000</v>
+        <v>37266688</v>
       </c>
       <c r="G94">
-        <v>306.0274214123422</v>
+        <v>311.346411018747</v>
       </c>
       <c r="H94">
-        <v>304.0779251098633</v>
+        <v>312.9710418701172</v>
       </c>
       <c r="I94">
-        <v>303.6726013183594</v>
+        <v>311.5037760416666</v>
       </c>
       <c r="L94">
-        <v>54.31260711910976</v>
+        <v>47.55965378345122</v>
       </c>
       <c r="M94">
-        <v>53.07014986279208</v>
+        <v>49.27087103341577</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3999,34 +4005,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>308.5706481933594</v>
+        <v>310.5046691894531</v>
       </c>
       <c r="C95">
-        <v>311.0128173828125</v>
+        <v>312.0380554199219</v>
       </c>
       <c r="D95">
-        <v>307.1098937988281</v>
+        <v>310.1425170898437</v>
       </c>
       <c r="E95">
-        <v>310.596435546875</v>
+        <v>311.0762023925781</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>10253824</v>
       </c>
       <c r="G95">
-        <v>306.4427863336634</v>
+        <v>311.3218465981861</v>
       </c>
       <c r="H95">
-        <v>304.6562683105469</v>
+        <v>312.6384368896485</v>
       </c>
       <c r="I95">
-        <v>303.8114298502604</v>
+        <v>311.735444132487</v>
       </c>
       <c r="L95">
-        <v>57.55328306987683</v>
+        <v>48.99483029114899</v>
       </c>
       <c r="M95">
-        <v>55.22528123553356</v>
+        <v>50.16966098391386</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4034,34 +4040,34 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>310.5572204589844</v>
+        <v>311.1410522460937</v>
       </c>
       <c r="C96">
-        <v>312.2145080566406</v>
+        <v>313.961181640625</v>
       </c>
       <c r="D96">
-        <v>305.1863098144531</v>
+        <v>311.0286560058594</v>
       </c>
       <c r="E96">
-        <v>305.3770751953125</v>
+        <v>313.7204895019531</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>11887232</v>
       </c>
       <c r="G96">
-        <v>306.3459035029042</v>
+        <v>311.5399050439831</v>
       </c>
       <c r="H96">
-        <v>304.7020324707031</v>
+        <v>312.5675109863281</v>
       </c>
       <c r="I96">
-        <v>303.7906321207682</v>
+        <v>312.0714060465495</v>
       </c>
       <c r="L96">
-        <v>47.69730525176931</v>
+        <v>54.8564693211061</v>
       </c>
       <c r="M96">
-        <v>48.95585206613762</v>
+        <v>53.88073109251985</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4069,34 +4075,34 @@
         <v>109</v>
       </c>
       <c r="B97">
-        <v>305.3144836425781</v>
+        <v>313.7547607421875</v>
       </c>
       <c r="C97">
-        <v>306.65283203125</v>
+        <v>315.6400756835937</v>
       </c>
       <c r="D97">
-        <v>298.5123291015625</v>
+        <v>311.1690979003906</v>
       </c>
       <c r="E97">
-        <v>300.6673889160156</v>
+        <v>311.1690979003906</v>
       </c>
       <c r="F97">
-        <v>34373760</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>305.8296749040961</v>
+        <v>311.5061953036566</v>
       </c>
       <c r="H97">
-        <v>304.5063034057617</v>
+        <v>312.3240921020508</v>
       </c>
       <c r="I97">
-        <v>303.5917561848958</v>
+        <v>312.2517781575521</v>
       </c>
       <c r="L97">
-        <v>40.63346745124981</v>
+        <v>48.77232672688587</v>
       </c>
       <c r="M97">
-        <v>44.09170863169959</v>
+        <v>50.01064215654398</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4104,34 +4110,34 @@
         <v>110</v>
       </c>
       <c r="B98">
-        <v>300.6817932128906</v>
+        <v>311.2066650390625</v>
       </c>
       <c r="C98">
-        <v>302.2825622558594</v>
+        <v>313.2113647460937</v>
       </c>
       <c r="D98">
-        <v>290.7372741699219</v>
+        <v>306.3778381347656</v>
       </c>
       <c r="E98">
-        <v>296.55810546875</v>
+        <v>313.2113647460937</v>
       </c>
       <c r="F98">
-        <v>64471296</v>
+        <v>31745024</v>
       </c>
       <c r="G98">
-        <v>304.9868049554283</v>
+        <v>311.6612107075145</v>
       </c>
       <c r="H98">
-        <v>304.2591857910156</v>
+        <v>312.1171783447265</v>
       </c>
       <c r="I98">
-        <v>303.3798360188802</v>
+        <v>312.5614888509115</v>
       </c>
       <c r="L98">
-        <v>35.47629374823476</v>
+        <v>53.42412080554807</v>
       </c>
       <c r="M98">
-        <v>40.32680092989467</v>
+        <v>52.9253473728751</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4139,34 +4145,34 @@
         <v>111</v>
       </c>
       <c r="B99">
-        <v>296.6254272460937</v>
+        <v>313.1870422363281</v>
       </c>
       <c r="C99">
-        <v>297.2929077148437</v>
+        <v>314.3004455566406</v>
       </c>
       <c r="D99">
-        <v>291.5197448730469</v>
+        <v>311.8142700195312</v>
       </c>
       <c r="E99">
-        <v>295.9539489746094</v>
+        <v>314.3004455566406</v>
       </c>
       <c r="F99">
-        <v>2940544</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>304.1656362298992</v>
+        <v>311.9011411483442</v>
       </c>
       <c r="H99">
-        <v>304.0737442016601</v>
+        <v>311.982096862793</v>
       </c>
       <c r="I99">
-        <v>303.4425944010417</v>
+        <v>313.0710286458333</v>
       </c>
       <c r="L99">
-        <v>34.74687076068452</v>
+        <v>55.83036554274596</v>
       </c>
       <c r="M99">
-        <v>39.7888693558774</v>
+        <v>54.45056690644366</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4174,34 +4180,34 @@
         <v>112</v>
       </c>
       <c r="B100">
-        <v>295.9718017578125</v>
+        <v>314.3002319335937</v>
       </c>
       <c r="C100">
-        <v>299.3934631347656</v>
+        <v>315.3217163085937</v>
       </c>
       <c r="D100">
-        <v>295.5996704101562</v>
+        <v>313.0394592285156</v>
       </c>
       <c r="E100">
-        <v>299.3934631347656</v>
+        <v>313.2170104980469</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100">
-        <v>303.7318023121598</v>
+        <v>312.0207656346807</v>
       </c>
       <c r="H100">
-        <v>303.9946029663086</v>
+        <v>311.8999176025391</v>
       </c>
       <c r="I100">
-        <v>303.4560557047526</v>
+        <v>313.2353576660156</v>
       </c>
       <c r="L100">
-        <v>42.3399262427425</v>
+        <v>52.77872795569796</v>
       </c>
       <c r="M100">
-        <v>44.34086709778142</v>
+        <v>52.62391476804435</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4209,34 +4215,34 @@
         <v>113</v>
       </c>
       <c r="B101">
-        <v>299.3885498046875</v>
+        <v>313.1851501464844</v>
       </c>
       <c r="C101">
-        <v>300.2684020996094</v>
+        <v>313.8577270507812</v>
       </c>
       <c r="D101">
-        <v>297.6755981445312</v>
+        <v>312.8491516113281</v>
       </c>
       <c r="E101">
-        <v>298.9530029296875</v>
+        <v>313.0395202636719</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>303.2973660046623</v>
+        <v>312.1133796918618</v>
       </c>
       <c r="H101">
-        <v>303.8420715332031</v>
+        <v>311.7910949707031</v>
       </c>
       <c r="I101">
-        <v>303.4418477376302</v>
+        <v>313.1595987955729</v>
       </c>
       <c r="L101">
-        <v>41.64184291028593</v>
+        <v>52.25235633699128</v>
       </c>
       <c r="M101">
-        <v>43.88333753155432</v>
+        <v>52.31429400667924</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4244,34 +4250,34 @@
         <v>114</v>
       </c>
       <c r="B102">
-        <v>299.0031433105469</v>
+        <v>313.0693359375</v>
       </c>
       <c r="C102">
-        <v>301.7714538574219</v>
+        <v>314.8820190429688</v>
       </c>
       <c r="D102">
-        <v>298.1998596191406</v>
+        <v>312.3036193847656</v>
       </c>
       <c r="E102">
-        <v>301.7714538574219</v>
+        <v>314.8331298828125</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>6007744</v>
       </c>
       <c r="G102">
-        <v>303.1586467185495</v>
+        <v>312.360629709221</v>
       </c>
       <c r="H102">
-        <v>303.9388732910156</v>
+        <v>311.8015365600586</v>
       </c>
       <c r="I102">
-        <v>303.444438680013</v>
+        <v>313.224311319987</v>
       </c>
       <c r="L102">
-        <v>47.83347832036089</v>
+        <v>57.11472344333026</v>
       </c>
       <c r="M102">
-        <v>47.60865280442125</v>
+        <v>55.18388047738161</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4279,34 +4285,34 @@
         <v>115</v>
       </c>
       <c r="B103">
-        <v>301.7714538574219</v>
+        <v>314.8497314453125</v>
       </c>
       <c r="C103">
-        <v>302.8119812011719</v>
+        <v>315.0414123535156</v>
       </c>
       <c r="D103">
-        <v>300.8610229492188</v>
+        <v>313.1807861328125</v>
       </c>
       <c r="E103">
-        <v>302.6395874023437</v>
+        <v>313.7892150878906</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>303.1114595079853</v>
+        <v>312.4905011072818</v>
       </c>
       <c r="H103">
-        <v>304.1145614624023</v>
+        <v>312.0446807861328</v>
       </c>
       <c r="I103">
-        <v>303.2658610026041</v>
+        <v>313.1936777750651</v>
       </c>
       <c r="L103">
-        <v>49.68336028870663</v>
+        <v>53.54446207052208</v>
       </c>
       <c r="M103">
-        <v>48.73749126849154</v>
+        <v>53.17808964162192</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -4314,34 +4320,34 @@
         <v>116</v>
       </c>
       <c r="B104">
-        <v>302.4674987792969</v>
+        <v>313.7732238769531</v>
       </c>
       <c r="C104">
-        <v>302.9240417480469</v>
+        <v>315.2701110839844</v>
       </c>
       <c r="D104">
-        <v>301.8526916503906</v>
+        <v>313.7732238769531</v>
       </c>
       <c r="E104">
-        <v>302.2369995117188</v>
+        <v>314.864990234375</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>303.0319631446883</v>
+        <v>312.7063637551994</v>
       </c>
       <c r="H104">
-        <v>304.5009429931641</v>
+        <v>312.1222747802734</v>
       </c>
       <c r="I104">
-        <v>303.1901987711589</v>
+        <v>313.0880767822266</v>
       </c>
       <c r="L104">
-        <v>48.78089889933407</v>
+        <v>56.68361931908081</v>
       </c>
       <c r="M104">
-        <v>48.21863626435234</v>
+        <v>54.99356017221392</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -4349,34 +4355,34 @@
         <v>117</v>
       </c>
       <c r="B105">
-        <v>302.2271118164062</v>
+        <v>314.8629455566406</v>
       </c>
       <c r="C105">
-        <v>302.7807006835937</v>
+        <v>316.8269653320312</v>
       </c>
       <c r="D105">
-        <v>300.4049987792969</v>
+        <v>314.8629455566406</v>
       </c>
       <c r="E105">
-        <v>302.0632934570312</v>
+        <v>316.7841796875</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3425920</v>
       </c>
       <c r="G105">
-        <v>302.9439022639922</v>
+        <v>313.0770742944995</v>
       </c>
       <c r="H105">
-        <v>304.7183364868164</v>
+        <v>312.3624374389648</v>
       </c>
       <c r="I105">
-        <v>303.2913228352865</v>
+        <v>313.0566060384115</v>
       </c>
       <c r="L105">
-        <v>48.35455326963663</v>
+        <v>61.85663133828896</v>
       </c>
       <c r="M105">
-        <v>47.98128385976344</v>
+        <v>58.11382731878555</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -4384,34 +4390,34 @@
         <v>118</v>
       </c>
       <c r="B106">
-        <v>302.1174621582031</v>
+        <v>316.9617614746094</v>
       </c>
       <c r="C106">
-        <v>305.1105651855469</v>
+        <v>319.2218017578125</v>
       </c>
       <c r="D106">
-        <v>301.2388305664062</v>
+        <v>316.2225952148437</v>
       </c>
       <c r="E106">
-        <v>304.1261596679688</v>
+        <v>318.5010070800781</v>
       </c>
       <c r="F106">
-        <v>7858880</v>
+        <v>17354560</v>
       </c>
       <c r="G106">
-        <v>303.0513802098083</v>
+        <v>313.5701590931884</v>
       </c>
       <c r="H106">
-        <v>304.6725021362305</v>
+        <v>312.8782745361328</v>
       </c>
       <c r="I106">
-        <v>303.2801350911458</v>
+        <v>313.1686726888021</v>
       </c>
       <c r="L106">
-        <v>53.75450722251677</v>
+        <v>65.9490652289207</v>
       </c>
       <c r="M106">
-        <v>51.06209366039054</v>
+        <v>60.73624813676341</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -4419,34 +4425,34 @@
         <v>119</v>
       </c>
       <c r="B107">
-        <v>304.1225280761719</v>
+        <v>318.4434814453125</v>
       </c>
       <c r="C107">
-        <v>305.2196350097656</v>
+        <v>318.456787109375</v>
       </c>
       <c r="D107">
-        <v>303.2882080078125</v>
+        <v>317.2506713867188</v>
       </c>
       <c r="E107">
-        <v>303.6416320800781</v>
+        <v>317.4403076171875</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3356032</v>
       </c>
       <c r="G107">
-        <v>303.1050394707419</v>
+        <v>313.9219907771883</v>
       </c>
       <c r="H107">
-        <v>304.5302703857422</v>
+        <v>313.2952453613281</v>
       </c>
       <c r="I107">
-        <v>303.2487904866537</v>
+        <v>313.2154337565104</v>
       </c>
       <c r="L107">
-        <v>52.30927806698603</v>
+        <v>61.37235267883928</v>
       </c>
       <c r="M107">
-        <v>50.30842901212144</v>
+        <v>58.30737091075998</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -4454,34 +4460,34 @@
         <v>120</v>
       </c>
       <c r="B108">
-        <v>303.5883178710937</v>
+        <v>317.4396362304688</v>
       </c>
       <c r="C108">
-        <v>306.5023193359375</v>
+        <v>319.2388000488281</v>
       </c>
       <c r="D108">
-        <v>303.2189025878906</v>
+        <v>317.2698364257812</v>
       </c>
       <c r="E108">
-        <v>305.7579345703125</v>
+        <v>318.9808959960937</v>
       </c>
       <c r="F108">
-        <v>8884608</v>
+        <v>1474688</v>
       </c>
       <c r="G108">
-        <v>303.346211752521</v>
+        <v>314.3818912516343</v>
       </c>
       <c r="H108">
-        <v>304.4719650268555</v>
+        <v>313.7817001342773</v>
       </c>
       <c r="I108">
-        <v>303.3907063802083</v>
+        <v>313.2698089599609</v>
       </c>
       <c r="L108">
-        <v>57.87445659787852</v>
+        <v>65.30641277979962</v>
       </c>
       <c r="M108">
-        <v>53.53436204337338</v>
+        <v>60.76177415644531</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -4489,34 +4495,34 @@
         <v>121</v>
       </c>
       <c r="B109">
-        <v>305.7184448242188</v>
+        <v>318.9912109375</v>
       </c>
       <c r="C109">
-        <v>306.4322814941406</v>
+        <v>319.2470092773437</v>
       </c>
       <c r="D109">
-        <v>303.6557922363281</v>
+        <v>317.8600463867188</v>
       </c>
       <c r="E109">
-        <v>303.9200439453125</v>
+        <v>318.2609558105469</v>
       </c>
       <c r="F109">
-        <v>8154432</v>
+        <v>1142400</v>
       </c>
       <c r="G109">
-        <v>303.398378315502</v>
+        <v>314.7345334842627</v>
       </c>
       <c r="H109">
-        <v>303.9424896240234</v>
+        <v>314.1306365966797</v>
       </c>
       <c r="I109">
-        <v>303.5326151529948</v>
+        <v>313.3117716471354</v>
       </c>
       <c r="L109">
-        <v>51.95150994700685</v>
+        <v>61.98740326841526</v>
       </c>
       <c r="M109">
-        <v>50.47005019884601</v>
+        <v>59.01341026580399</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -4524,34 +4530,34 @@
         <v>122</v>
       </c>
       <c r="B110">
-        <v>303.9454040527344</v>
+        <v>318.2958679199219</v>
       </c>
       <c r="C110">
-        <v>305.1669311523437</v>
+        <v>320.9049682617188</v>
       </c>
       <c r="D110">
-        <v>299.0142517089844</v>
+        <v>318.2958679199219</v>
       </c>
       <c r="E110">
-        <v>299.0142517089844</v>
+        <v>320.3049011230469</v>
       </c>
       <c r="F110">
-        <v>32606208</v>
+        <v>25661440</v>
       </c>
       <c r="G110">
-        <v>302.9998213512732</v>
+        <v>315.240930542334</v>
       </c>
       <c r="H110">
-        <v>303.5554779052734</v>
+        <v>314.5680252075196</v>
       </c>
       <c r="I110">
-        <v>303.4672139485677</v>
+        <v>313.4932484944662</v>
       </c>
       <c r="L110">
-        <v>39.73889438712454</v>
+        <v>67.29599143154259</v>
       </c>
       <c r="M110">
-        <v>43.3390015045474</v>
+        <v>62.3276339668209</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -4559,34 +4565,34 @@
         <v>123</v>
       </c>
       <c r="B111">
-        <v>299.0258178710937</v>
+        <v>320.3230590820312</v>
       </c>
       <c r="C111">
-        <v>309.6148986816406</v>
+        <v>321.2838134765625</v>
       </c>
       <c r="D111">
-        <v>299.0258178710937</v>
+        <v>318.2885131835937</v>
       </c>
       <c r="E111">
-        <v>308.2871398925781</v>
+        <v>318.3645629882812</v>
       </c>
       <c r="F111">
-        <v>53323712</v>
+        <v>5214272</v>
       </c>
       <c r="G111">
-        <v>303.48048667321</v>
+        <v>315.5248971283292</v>
       </c>
       <c r="H111">
-        <v>303.5131607055664</v>
+        <v>314.7376831054688</v>
       </c>
       <c r="I111">
-        <v>303.6766642252604</v>
+        <v>313.5982014973958</v>
       </c>
       <c r="L111">
-        <v>59.82281235015564</v>
+        <v>58.56173215239772</v>
       </c>
       <c r="M111">
-        <v>55.99535829274891</v>
+        <v>57.56860274671347</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -4594,2376 +4600,2406 @@
         <v>124</v>
       </c>
       <c r="B112">
-        <v>308.3220825195312</v>
+        <v>318.3790893554688</v>
       </c>
       <c r="C112">
-        <v>318.8585815429688</v>
+        <v>319.7400817871094</v>
       </c>
       <c r="D112">
-        <v>308.3220825195312</v>
+        <v>315.8670654296875</v>
       </c>
       <c r="E112">
-        <v>315.3122863769531</v>
+        <v>316.4255981445312</v>
       </c>
       <c r="F112">
-        <v>214683584</v>
+        <v>19109376</v>
       </c>
       <c r="G112">
-        <v>304.5561048280957</v>
+        <v>315.606779038893</v>
       </c>
       <c r="H112">
-        <v>303.8435394287109</v>
+        <v>315.1125671386719</v>
       </c>
       <c r="I112">
-        <v>304.1925598144531</v>
+        <v>313.6582448323568</v>
       </c>
       <c r="L112">
-        <v>68.71072419899711</v>
+        <v>51.10504837549648</v>
       </c>
       <c r="M112">
-        <v>62.77866529249279</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>53.19735751189909</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>315.3205871582031</v>
+        <v>316.3948364257812</v>
       </c>
       <c r="C113">
-        <v>316.4499816894531</v>
+        <v>318.2445373535156</v>
       </c>
       <c r="D113">
-        <v>311.7695617675781</v>
+        <v>314.6910705566406</v>
       </c>
       <c r="E113">
-        <v>312.8917541503906</v>
+        <v>317.6017761230469</v>
       </c>
       <c r="F113">
-        <v>124237568</v>
+        <v>26543104</v>
       </c>
       <c r="G113">
-        <v>305.3138911301225</v>
+        <v>315.7881424101797</v>
       </c>
       <c r="H113">
-        <v>303.8871398925781</v>
+        <v>315.3167419433594</v>
       </c>
       <c r="I113">
-        <v>304.6514241536458</v>
+        <v>313.9474263509115</v>
       </c>
       <c r="L113">
-        <v>63.28417971388952</v>
+        <v>55.01403748611986</v>
       </c>
       <c r="M113">
-        <v>59.38210934846427</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>55.40919196141909</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>312.8319396972656</v>
+        <v>317.6016540527344</v>
       </c>
       <c r="C114">
-        <v>319.5900573730469</v>
+        <v>317.6016540527344</v>
       </c>
       <c r="D114">
-        <v>312.5022888183594</v>
+        <v>310.7030029296875</v>
       </c>
       <c r="E114">
-        <v>314.7082214355469</v>
+        <v>313.282470703125</v>
       </c>
       <c r="F114">
-        <v>364697216</v>
+        <v>51783040</v>
       </c>
       <c r="G114">
-        <v>306.1679211578883</v>
+        <v>315.5603540731747</v>
       </c>
       <c r="H114">
-        <v>304.1935089111328</v>
+        <v>315.4584060668946</v>
       </c>
       <c r="I114">
-        <v>305.3247192382813</v>
+        <v>313.9464050292969</v>
       </c>
       <c r="L114">
-        <v>65.57921241844481</v>
+        <v>41.35495836779764</v>
       </c>
       <c r="M114">
-        <v>61.08371704500542</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>46.68398531754811</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>314.5664367675781</v>
+        <v>313.1899719238281</v>
       </c>
       <c r="C115">
-        <v>318.6239929199219</v>
+        <v>314.6211547851562</v>
       </c>
       <c r="D115">
-        <v>314.2677001953125</v>
+        <v>308.860107421875</v>
       </c>
       <c r="E115">
-        <v>318.0330200195312</v>
+        <v>310.6378784179688</v>
       </c>
       <c r="F115">
-        <v>83231104</v>
+        <v>75765952</v>
       </c>
       <c r="G115">
-        <v>307.2465665089468</v>
+        <v>315.1128562863378</v>
       </c>
       <c r="H115">
-        <v>304.5653381347656</v>
+        <v>315.4364898681641</v>
       </c>
       <c r="I115">
-        <v>306.0019724527995</v>
+        <v>313.9016367594401</v>
       </c>
       <c r="L115">
-        <v>69.50442155911711</v>
+        <v>35.31535032011801</v>
       </c>
       <c r="M115">
-        <v>64.05221437097903</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>42.29272604822192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>318.0330200195312</v>
+        <v>310.6637268066406</v>
       </c>
       <c r="C116">
-        <v>318.6836853027344</v>
+        <v>311.8317260742188</v>
       </c>
       <c r="D116">
-        <v>313.1257629394531</v>
+        <v>304.6249389648437</v>
       </c>
       <c r="E116">
-        <v>317.7283020019531</v>
+        <v>305.8368530273437</v>
       </c>
       <c r="F116">
-        <v>39640448</v>
+        <v>38913152</v>
       </c>
       <c r="G116">
-        <v>308.1994515537655</v>
+        <v>314.2695832627929</v>
       </c>
       <c r="H116">
-        <v>305.1828994750977</v>
+        <v>315.0423080444336</v>
       </c>
       <c r="I116">
-        <v>306.4248209635417</v>
+        <v>313.8233896891276</v>
       </c>
       <c r="L116">
-        <v>68.69669721607765</v>
+        <v>27.2018622380312</v>
       </c>
       <c r="M116">
-        <v>63.57358484311639</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>35.72323282072481</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>317.5467834472656</v>
+        <v>305.8536682128906</v>
       </c>
       <c r="C117">
-        <v>318.0791625976562</v>
+        <v>309.3191528320312</v>
       </c>
       <c r="D117">
-        <v>314.0261840820312</v>
+        <v>304.9872741699219</v>
       </c>
       <c r="E117">
-        <v>315.1390075683594</v>
+        <v>305.2994689941406</v>
       </c>
       <c r="F117">
-        <v>96584960</v>
+        <v>22875776</v>
       </c>
       <c r="G117">
-        <v>308.830320282365</v>
+        <v>313.454118329279</v>
       </c>
       <c r="H117">
-        <v>305.9064804077149</v>
+        <v>314.7488265991211</v>
       </c>
       <c r="I117">
-        <v>306.7132456461588</v>
+        <v>313.6966756184896</v>
       </c>
       <c r="L117">
-        <v>61.82803714856169</v>
+        <v>26.43704054235338</v>
       </c>
       <c r="M117">
-        <v>59.50461934391689</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>35.06664051323057</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>315.244384765625</v>
+        <v>305.4375</v>
       </c>
       <c r="C118">
-        <v>317.3765869140625</v>
+        <v>310.5827941894531</v>
       </c>
       <c r="D118">
-        <v>314.8137817382812</v>
+        <v>305.2621459960937</v>
       </c>
       <c r="E118">
-        <v>316.0374755859375</v>
+        <v>310.0203247070312</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>6429312</v>
       </c>
       <c r="G118">
-        <v>309.4855162190534</v>
+        <v>313.141955272711</v>
       </c>
       <c r="H118">
-        <v>306.8804489135742</v>
+        <v>314.589274597168</v>
       </c>
       <c r="I118">
-        <v>307.0170267740885</v>
+        <v>313.7222930908203</v>
       </c>
       <c r="L118">
-        <v>63.26196022162926</v>
+        <v>42.43338496419372</v>
       </c>
       <c r="M118">
-        <v>60.45053792133244</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>44.68514338662863</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>316.03759765625</v>
+        <v>310.0159912109375</v>
       </c>
       <c r="C119">
-        <v>318.7459411621094</v>
+        <v>311.1738586425781</v>
       </c>
       <c r="D119">
-        <v>315.5406188964844</v>
+        <v>307.3337707519531</v>
       </c>
       <c r="E119">
-        <v>317.3496398925781</v>
+        <v>307.4739074707031</v>
       </c>
       <c r="F119">
-        <v>8741888</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>310.2004365530101</v>
+        <v>312.6266781998012</v>
       </c>
       <c r="H119">
-        <v>307.9502334594727</v>
+        <v>314.2479476928711</v>
       </c>
       <c r="I119">
-        <v>307.1116963704427</v>
+        <v>313.5953491210938</v>
       </c>
       <c r="L119">
-        <v>65.39758935359934</v>
+        <v>37.48684215373273</v>
       </c>
       <c r="M119">
-        <v>61.85202793073294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>41.14477976148682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>317.3829956054688</v>
+        <v>307.708251953125</v>
       </c>
       <c r="C120">
-        <v>318.4729614257812</v>
+        <v>308.7669677734375</v>
       </c>
       <c r="D120">
-        <v>313.5428466796875</v>
+        <v>293.0435791015625</v>
       </c>
       <c r="E120">
-        <v>317.0020751953125</v>
+        <v>295.5453491210937</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>111577024</v>
       </c>
       <c r="G120">
-        <v>310.8187673386739</v>
+        <v>311.0738301017369</v>
       </c>
       <c r="H120">
-        <v>308.8306640625</v>
+        <v>313.3643646240234</v>
       </c>
       <c r="I120">
-        <v>307.4532826741536</v>
+        <v>313.0616231282552</v>
       </c>
       <c r="L120">
-        <v>64.28403115507201</v>
+        <v>23.22123368795178</v>
       </c>
       <c r="M120">
-        <v>61.23306090125884</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>29.39555028585811</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>316.9983520507812</v>
+        <v>295.6270141601562</v>
       </c>
       <c r="C121">
-        <v>317.772216796875</v>
+        <v>298.1036376953125</v>
       </c>
       <c r="D121">
-        <v>313.6207580566406</v>
+        <v>291.0572814941406</v>
       </c>
       <c r="E121">
-        <v>314.860595703125</v>
+        <v>296.3536987304688</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>46478144</v>
       </c>
       <c r="G121">
-        <v>311.1862062808968</v>
+        <v>309.7356363407125</v>
       </c>
       <c r="H121">
-        <v>309.6260437011719</v>
+        <v>312.5300735473633</v>
       </c>
       <c r="I121">
-        <v>307.6441864013672</v>
+        <v>312.4410329182943</v>
       </c>
       <c r="L121">
-        <v>57.49773650180423</v>
+        <v>25.38592511552248</v>
       </c>
       <c r="M121">
-        <v>57.42028021223158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>30.8368859733522</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>314.8484191894531</v>
+        <v>296.4641723632812</v>
       </c>
       <c r="C122">
-        <v>317.28076171875</v>
+        <v>298.2530212402344</v>
       </c>
       <c r="D122">
-        <v>314.8484191894531</v>
+        <v>294.72802734375</v>
       </c>
       <c r="E122">
-        <v>315.2159729003906</v>
+        <v>294.9013366699219</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>23133824</v>
       </c>
       <c r="G122">
-        <v>311.5525487008508</v>
+        <v>308.3870636433679</v>
       </c>
       <c r="H122">
-        <v>310.2982696533203</v>
+        <v>311.5334838867187</v>
       </c>
       <c r="I122">
-        <v>307.8612284342448</v>
+        <v>311.9734802246094</v>
       </c>
       <c r="L122">
-        <v>58.31921028699842</v>
+        <v>24.01723222846078</v>
       </c>
       <c r="M122">
-        <v>57.8888916127096</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>29.66512352877528</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>315.1612243652344</v>
+        <v>294.7484741210937</v>
       </c>
       <c r="C123">
-        <v>315.9275512695312</v>
+        <v>298.681884765625</v>
       </c>
       <c r="D123">
-        <v>313.9970703125</v>
+        <v>293.0859375</v>
       </c>
       <c r="E123">
-        <v>314.6242980957031</v>
+        <v>298.5024719238281</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>9305536</v>
       </c>
       <c r="G123">
-        <v>311.8317986458374</v>
+        <v>307.488464396137</v>
       </c>
       <c r="H123">
-        <v>310.8975051879883</v>
+        <v>310.7691467285156</v>
       </c>
       <c r="I123">
-        <v>307.948046875</v>
+        <v>311.4729532877604</v>
       </c>
       <c r="L123">
-        <v>56.28172224483777</v>
+        <v>33.95064846499355</v>
       </c>
       <c r="M123">
-        <v>56.76868764399985</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>36.14427483493309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>314.6166381835937</v>
+        <v>298.4072265625</v>
       </c>
       <c r="C124">
-        <v>314.8002319335937</v>
+        <v>300.3409729003906</v>
       </c>
       <c r="D124">
-        <v>308.9263305664062</v>
+        <v>297.6417846679688</v>
       </c>
       <c r="E124">
-        <v>308.9263305664062</v>
+        <v>298.2391357421875</v>
       </c>
       <c r="F124">
-        <v>24084160</v>
+        <v>7703232</v>
       </c>
       <c r="G124">
-        <v>311.5676651840709</v>
+        <v>306.647616336687</v>
       </c>
       <c r="H124">
-        <v>311.2319717407227</v>
+        <v>309.9378540039062</v>
       </c>
       <c r="I124">
-        <v>307.9595631917318</v>
+        <v>311.0659515380859</v>
       </c>
       <c r="L124">
-        <v>40.82805538621667</v>
+        <v>33.5893972152818</v>
       </c>
       <c r="M124">
-        <v>47.2800952147354</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>35.88395724922045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>308.9229431152344</v>
+        <v>298.2377319335937</v>
       </c>
       <c r="C125">
-        <v>313.8898315429688</v>
+        <v>298.2377319335937</v>
       </c>
       <c r="D125">
-        <v>307.863037109375</v>
+        <v>291.3782958984375</v>
       </c>
       <c r="E125">
-        <v>313.3131103515625</v>
+        <v>292.8460693359375</v>
       </c>
       <c r="F125">
-        <v>99754944</v>
+        <v>67734848</v>
       </c>
       <c r="G125">
-        <v>311.7263420174792</v>
+        <v>305.3929302457097</v>
       </c>
       <c r="H125">
-        <v>311.7944625854492</v>
+        <v>308.7409484863281</v>
       </c>
       <c r="I125">
-        <v>308.0501190185547</v>
+        <v>310.4582804361979</v>
       </c>
       <c r="L125">
-        <v>52.1965253368224</v>
+        <v>26.97609801511035</v>
       </c>
       <c r="M125">
-        <v>53.69683155646025</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>30.96527419128556</v>
+      </c>
+      <c r="N125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>313.2999877929688</v>
+        <v>292.8678588867188</v>
       </c>
       <c r="C126">
-        <v>313.9859008789062</v>
+        <v>296.58837890625</v>
       </c>
       <c r="D126">
-        <v>311.5762939453125</v>
+        <v>291.9310913085937</v>
       </c>
       <c r="E126">
-        <v>311.9809265136719</v>
+        <v>294.9875183105469</v>
       </c>
       <c r="F126">
-        <v>89472000</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>311.7494860625877</v>
+        <v>304.4469837061495</v>
       </c>
       <c r="H126">
-        <v>312.1872009277344</v>
+        <v>307.5652740478515</v>
       </c>
       <c r="I126">
-        <v>308.2702473958333</v>
+        <v>309.833848063151</v>
       </c>
       <c r="L126">
-        <v>48.98146730484279</v>
+        <v>32.87941594799642</v>
       </c>
       <c r="M126">
-        <v>51.6412289624563</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>34.78766348222063</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>311.9905700683594</v>
+        <v>295.0118103027344</v>
       </c>
       <c r="C127">
-        <v>312.1630859375</v>
+        <v>297.4983215332031</v>
       </c>
       <c r="D127">
-        <v>308.0719299316406</v>
+        <v>292.5700988769531</v>
       </c>
       <c r="E127">
-        <v>308.1842651367188</v>
+        <v>293.8511047363281</v>
       </c>
       <c r="F127">
-        <v>6044672</v>
+        <v>4193408</v>
       </c>
       <c r="G127">
-        <v>311.4253750693268</v>
+        <v>303.4837219816202</v>
       </c>
       <c r="H127">
-        <v>312.4143325805664</v>
+        <v>306.3858139038085</v>
       </c>
       <c r="I127">
-        <v>308.5208099365234</v>
+        <v>309.2565816243489</v>
       </c>
       <c r="L127">
-        <v>40.90356478545549</v>
+        <v>31.36562372225142</v>
       </c>
       <c r="M127">
-        <v>46.21167007313952</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>33.72063402640808</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>308.1819763183594</v>
+        <v>293.8565673828125</v>
       </c>
       <c r="C128">
-        <v>310.3981018066406</v>
+        <v>294.2084350585937</v>
       </c>
       <c r="D128">
-        <v>307.3587646484375</v>
+        <v>290.8543395996094</v>
       </c>
       <c r="E128">
-        <v>309.1008911132812</v>
+        <v>292.134765625</v>
       </c>
       <c r="F128">
-        <v>21251200</v>
+        <v>6239424</v>
       </c>
       <c r="G128">
-        <v>311.21405834605</v>
+        <v>302.4519986764729</v>
       </c>
       <c r="H128">
-        <v>312.5814804077148</v>
+        <v>305.0435073852539</v>
       </c>
       <c r="I128">
-        <v>308.9389027913411</v>
+        <v>308.5540283203125</v>
       </c>
       <c r="L128">
-        <v>43.43718017425493</v>
+        <v>29.08997738327487</v>
       </c>
       <c r="M128">
-        <v>47.64292929855767</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
+        <v>32.11829292550485</v>
+      </c>
+      <c r="N128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>309.0931091308594</v>
+        <v>292.1076965332031</v>
       </c>
       <c r="C129">
-        <v>309.7669982910156</v>
+        <v>293.6065368652344</v>
       </c>
       <c r="D129">
-        <v>305.7171630859375</v>
+        <v>291.1037902832031</v>
       </c>
       <c r="E129">
-        <v>309.2518005371094</v>
+        <v>293.1042785644531</v>
       </c>
       <c r="F129">
-        <v>34280064</v>
+        <v>3491712</v>
       </c>
       <c r="G129">
-        <v>311.0356712725099</v>
+        <v>301.6022059390165</v>
       </c>
       <c r="H129">
-        <v>312.8480682373047</v>
+        <v>303.7856735229492</v>
       </c>
       <c r="I129">
-        <v>309.3821645100912</v>
+        <v>307.8474894205729</v>
       </c>
       <c r="L129">
-        <v>43.88278739294346</v>
+        <v>32.21523600463433</v>
       </c>
       <c r="M129">
-        <v>47.88877938676108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
+        <v>34.02538345542043</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>309.2518005371094</v>
+        <v>293.0929870605469</v>
       </c>
       <c r="C130">
-        <v>312.1998596191406</v>
+        <v>293.693603515625</v>
       </c>
       <c r="D130">
-        <v>308.5942077636719</v>
+        <v>287.8705444335937</v>
       </c>
       <c r="E130">
-        <v>311.2822265625</v>
+        <v>290.3784790039062</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>52561472</v>
       </c>
       <c r="G130">
-        <v>311.0580853897817</v>
+        <v>300.5818671267338</v>
       </c>
       <c r="H130">
-        <v>313.4614669799805</v>
+        <v>302.2893524169921</v>
       </c>
       <c r="I130">
-        <v>309.778456624349</v>
+        <v>307.0862050374349</v>
       </c>
       <c r="L130">
-        <v>49.86160033857757</v>
+        <v>28.27379307000667</v>
       </c>
       <c r="M130">
-        <v>51.20845102190069</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
+        <v>31.35796350290235</v>
+      </c>
+      <c r="N130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>311.2497253417969</v>
+        <v>290.3793640136719</v>
       </c>
       <c r="C131">
-        <v>312.357666015625</v>
+        <v>291.8386535644531</v>
       </c>
       <c r="D131">
-        <v>310.4460754394531</v>
+        <v>287.7281494140625</v>
       </c>
       <c r="E131">
-        <v>311.55712890625</v>
+        <v>291.8386535644531</v>
       </c>
       <c r="F131">
-        <v>10428032</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>311.1034529821879</v>
+        <v>299.7870295301628</v>
       </c>
       <c r="H131">
-        <v>313.6249664306641</v>
+        <v>300.9630569458008</v>
       </c>
       <c r="I131">
-        <v>310.198594156901</v>
+        <v>306.3795094807943</v>
       </c>
       <c r="L131">
-        <v>50.66224906457656</v>
+        <v>33.19916678535866</v>
       </c>
       <c r="M131">
-        <v>51.65747462465276</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
+        <v>34.32801549120343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>311.6171569824219</v>
+        <v>291.8621826171875</v>
       </c>
       <c r="C132">
-        <v>315.1431884765625</v>
+        <v>294.9823303222656</v>
       </c>
       <c r="D132">
-        <v>310.2885131835937</v>
+        <v>289.5636901855469</v>
       </c>
       <c r="E132">
-        <v>314.9714050292969</v>
+        <v>294.6333618164062</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>83114432</v>
       </c>
       <c r="G132">
-        <v>311.4550849864705</v>
+        <v>299.3185142834577</v>
       </c>
       <c r="H132">
-        <v>313.6079223632813</v>
+        <v>299.8734451293945</v>
       </c>
       <c r="I132">
-        <v>310.6385925292969</v>
+        <v>305.7061838785807</v>
       </c>
       <c r="L132">
-        <v>59.66247679070388</v>
+        <v>41.80393481866518</v>
       </c>
       <c r="M132">
-        <v>56.95585932682897</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
+        <v>39.70537272792131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>314.9914855957031</v>
+        <v>294.7489929199219</v>
       </c>
       <c r="C133">
-        <v>314.9914855957031</v>
+        <v>296.052490234375</v>
       </c>
       <c r="D133">
-        <v>308.9279174804688</v>
+        <v>292.1003112792969</v>
       </c>
       <c r="E133">
-        <v>308.9279174804688</v>
+        <v>292.3795471191406</v>
       </c>
       <c r="F133">
-        <v>55929920</v>
+        <v>32126464</v>
       </c>
       <c r="G133">
-        <v>311.2253424859249</v>
+        <v>298.6876990867016</v>
       </c>
       <c r="H133">
-        <v>313.4097305297852</v>
+        <v>298.6123336791992</v>
       </c>
       <c r="I133">
-        <v>310.848203531901</v>
+        <v>304.9925282796224</v>
       </c>
       <c r="L133">
-        <v>43.76461343291669</v>
+        <v>37.42964776259987</v>
       </c>
       <c r="M133">
-        <v>47.11286296241082</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
+        <v>37.0692310982953</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>308.90087890625</v>
+        <v>292.3191833496094</v>
       </c>
       <c r="C134">
-        <v>314.7270812988281</v>
+        <v>293.060546875</v>
       </c>
       <c r="D134">
-        <v>307.5998229980469</v>
+        <v>289.1376037597656</v>
       </c>
       <c r="E134">
-        <v>313.5182800292969</v>
+        <v>291.93017578125</v>
       </c>
       <c r="F134">
-        <v>45895232</v>
+        <v>19060416</v>
       </c>
       <c r="G134">
-        <v>311.4337913535041</v>
+        <v>298.073378786206</v>
       </c>
       <c r="H134">
-        <v>313.3502334594726</v>
+        <v>297.5447189331054</v>
       </c>
       <c r="I134">
-        <v>311.2242462158203</v>
+        <v>304.2280344645182</v>
       </c>
       <c r="L134">
-        <v>54.19425358273561</v>
+        <v>36.57128663474377</v>
       </c>
       <c r="M134">
-        <v>53.66313851394379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
+        <v>36.5482075052815</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>313.2928771972656</v>
+        <v>291.920166015625</v>
       </c>
       <c r="C135">
-        <v>313.2928771972656</v>
+        <v>292.3015441894531</v>
       </c>
       <c r="D135">
-        <v>308.4205932617188</v>
+        <v>290.6173706054688</v>
       </c>
       <c r="E135">
-        <v>310.4491882324219</v>
+        <v>291.9471435546875</v>
       </c>
       <c r="F135">
-        <v>37266688</v>
+        <v>15284096</v>
       </c>
       <c r="G135">
-        <v>311.3442819788603</v>
+        <v>297.5164483106134</v>
       </c>
       <c r="H135">
-        <v>312.9710418701172</v>
+        <v>296.6101821899414</v>
       </c>
       <c r="I135">
-        <v>311.5037760416666</v>
+        <v>303.4001332600911</v>
       </c>
       <c r="L135">
-        <v>47.55966711035082</v>
+        <v>36.63301565039074</v>
       </c>
       <c r="M135">
-        <v>49.26939858161778</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>36.58445214039224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>310.5046691894531</v>
+        <v>291.9390563964844</v>
       </c>
       <c r="C136">
-        <v>312.0380554199219</v>
+        <v>295.0590209960937</v>
       </c>
       <c r="D136">
-        <v>310.1425170898437</v>
+        <v>290.8773803710937</v>
       </c>
       <c r="E136">
-        <v>311.0762023925781</v>
+        <v>293.4614562988281</v>
       </c>
       <c r="F136">
-        <v>10253824</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>311.3199111073801</v>
+        <v>297.1478126731784</v>
       </c>
       <c r="H136">
-        <v>312.6384368896485</v>
+        <v>295.9914123535156</v>
       </c>
       <c r="I136">
-        <v>311.735444132487</v>
+        <v>302.5654815673828</v>
       </c>
       <c r="L136">
-        <v>48.99480948137484</v>
+        <v>42.27356532211951</v>
       </c>
       <c r="M136">
-        <v>50.16708920226281</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
+        <v>39.88479870076215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>311.1410522460937</v>
+        <v>293.4853210449219</v>
       </c>
       <c r="C137">
-        <v>313.961181640625</v>
+        <v>294.8670654296875</v>
       </c>
       <c r="D137">
-        <v>311.0286560058594</v>
+        <v>293.4048461914062</v>
       </c>
       <c r="E137">
-        <v>313.7204895019531</v>
+        <v>294.5391845703125</v>
       </c>
       <c r="F137">
-        <v>11887232</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>311.5381455068867</v>
+        <v>296.9106646638269</v>
       </c>
       <c r="H137">
-        <v>312.5675109863281</v>
+        <v>295.4533981323242</v>
       </c>
       <c r="I137">
-        <v>312.0714060465495</v>
+        <v>301.8021107991536</v>
       </c>
       <c r="L137">
-        <v>54.85632882056363</v>
+        <v>46.1140014329623</v>
       </c>
       <c r="M137">
-        <v>53.87404960220137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
+        <v>42.19069579230568</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>313.7547607421875</v>
+        <v>294.5671997070312</v>
       </c>
       <c r="C138">
-        <v>315.6400756835937</v>
+        <v>303.7918395996094</v>
       </c>
       <c r="D138">
-        <v>311.1690979003906</v>
+        <v>294.5161437988281</v>
       </c>
       <c r="E138">
-        <v>311.1690979003906</v>
+        <v>302.9154052734375</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>22882880</v>
       </c>
       <c r="G138">
-        <v>311.504595724478</v>
+        <v>297.4565501737915</v>
       </c>
       <c r="H138">
-        <v>312.3240921020508</v>
+        <v>295.0981521606445</v>
       </c>
       <c r="I138">
-        <v>312.2517781575521</v>
+        <v>301.2665944417318</v>
       </c>
       <c r="L138">
-        <v>48.77231447150083</v>
+        <v>65.93153880648107</v>
       </c>
       <c r="M138">
-        <v>50.00860355689065</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
+        <v>56.2400399768358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>311.2066650390625</v>
+        <v>302.9145812988281</v>
       </c>
       <c r="C139">
-        <v>313.2113647460937</v>
+        <v>303.0110473632812</v>
       </c>
       <c r="D139">
-        <v>306.3778381347656</v>
+        <v>300.8357238769531</v>
       </c>
       <c r="E139">
-        <v>313.2113647460937</v>
+        <v>302.9055786132812</v>
       </c>
       <c r="F139">
-        <v>31745024</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>311.6597565446248</v>
+        <v>297.9519163955633</v>
       </c>
       <c r="H139">
-        <v>312.1171783447265</v>
+        <v>294.8697357177734</v>
       </c>
       <c r="I139">
-        <v>312.5614888509115</v>
+        <v>300.7547485351562</v>
       </c>
       <c r="L139">
-        <v>53.42403134572089</v>
+        <v>65.89955231822861</v>
       </c>
       <c r="M139">
-        <v>52.92047448114317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
+        <v>56.22277710240071</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>313.1870422363281</v>
+        <v>302.9038696289062</v>
       </c>
       <c r="C140">
-        <v>314.3004455566406</v>
+        <v>303.6548156738281</v>
       </c>
       <c r="D140">
-        <v>311.8142700195312</v>
+        <v>301.6177062988281</v>
       </c>
       <c r="E140">
-        <v>314.3004455566406</v>
+        <v>301.6177062988281</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>7287872</v>
       </c>
       <c r="G140">
-        <v>311.8998191820808</v>
+        <v>298.2851700231328</v>
       </c>
       <c r="H140">
-        <v>311.982096862793</v>
+        <v>295.1733535766601</v>
       </c>
       <c r="I140">
-        <v>313.0710286458333</v>
+        <v>300.1318420410156</v>
       </c>
       <c r="L140">
-        <v>55.83024228612699</v>
+        <v>61.50038408030244</v>
       </c>
       <c r="M140">
-        <v>54.44435648256304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
+        <v>53.88817681204586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>314.3002319335937</v>
+        <v>301.6751708984375</v>
       </c>
       <c r="C141">
-        <v>315.3217163085937</v>
+        <v>302.5428466796875</v>
       </c>
       <c r="D141">
-        <v>313.0394592285156</v>
+        <v>301.2691040039062</v>
       </c>
       <c r="E141">
-        <v>313.2170104980469</v>
+        <v>302.3796691894531</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
       <c r="G141">
-        <v>312.0195638471686</v>
+        <v>298.657397220071</v>
       </c>
       <c r="H141">
-        <v>311.8999176025391</v>
+        <v>295.4746520996094</v>
       </c>
       <c r="I141">
-        <v>313.2353576660156</v>
+        <v>299.5990122477214</v>
       </c>
       <c r="L141">
-        <v>52.7786574958755</v>
+        <v>63.13824727660349</v>
       </c>
       <c r="M141">
-        <v>52.61964324031298</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
+        <v>55.07672647679529</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>313.1851501464844</v>
+        <v>302.3171691894531</v>
       </c>
       <c r="C142">
-        <v>313.8577270507812</v>
+        <v>307.4114379882812</v>
       </c>
       <c r="D142">
-        <v>312.8491516113281</v>
+        <v>302.0614318847656</v>
       </c>
       <c r="E142">
-        <v>313.0395202636719</v>
+        <v>305.8773803710937</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>18927488</v>
       </c>
       <c r="G142">
-        <v>312.1122871577599</v>
+        <v>299.3137593247094</v>
       </c>
       <c r="H142">
-        <v>311.7910949707031</v>
+        <v>296.023454284668</v>
       </c>
       <c r="I142">
-        <v>313.1595987955729</v>
+        <v>299.2474049886068</v>
       </c>
       <c r="L142">
-        <v>52.25229444540773</v>
+        <v>69.77793945631907</v>
       </c>
       <c r="M142">
-        <v>52.31033922863632</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
+        <v>60.15393797308148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>313.0693359375</v>
+        <v>305.8505859375</v>
       </c>
       <c r="C143">
-        <v>314.8820190429688</v>
+        <v>306.45703125</v>
       </c>
       <c r="D143">
-        <v>312.3036193847656</v>
+        <v>302.6224060058594</v>
       </c>
       <c r="E143">
-        <v>314.8331298828125</v>
+        <v>303.0226135253906</v>
       </c>
       <c r="F143">
-        <v>6007744</v>
+        <v>4032768</v>
       </c>
       <c r="G143">
-        <v>312.359636496401</v>
+        <v>299.6509278884077</v>
       </c>
       <c r="H143">
-        <v>311.8015365600586</v>
+        <v>296.2494613647461</v>
       </c>
       <c r="I143">
-        <v>313.224311319987</v>
+        <v>298.7614329020182</v>
       </c>
       <c r="L143">
-        <v>57.11460259531279</v>
+        <v>59.8751450210959</v>
       </c>
       <c r="M143">
-        <v>55.17762303681015</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
+        <v>54.71821673053544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>314.8497314453125</v>
+        <v>303.0481872558594</v>
       </c>
       <c r="C144">
-        <v>315.0414123535156</v>
+        <v>304.4273681640625</v>
       </c>
       <c r="D144">
-        <v>313.1807861328125</v>
+        <v>302.6745300292969</v>
       </c>
       <c r="E144">
-        <v>313.7892150878906</v>
+        <v>303.866455078125</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>312.4895981865365</v>
+        <v>300.0341576329274</v>
       </c>
       <c r="H144">
-        <v>312.0446807861328</v>
+        <v>296.530827331543</v>
       </c>
       <c r="I144">
-        <v>313.1936777750651</v>
+        <v>298.4475657145182</v>
       </c>
       <c r="L144">
-        <v>53.5443936987489</v>
+        <v>61.6834385852714</v>
       </c>
       <c r="M144">
-        <v>53.17377068327928</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>55.98433798033538</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>313.7732238769531</v>
+        <v>303.8964233398437</v>
       </c>
       <c r="C145">
-        <v>315.2701110839844</v>
+        <v>304.2687683105469</v>
       </c>
       <c r="D145">
-        <v>313.7732238769531</v>
+        <v>303.1869812011719</v>
       </c>
       <c r="E145">
-        <v>314.864990234375</v>
+        <v>303.7301330566406</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>312.7055429181581</v>
+        <v>300.3701553987195</v>
       </c>
       <c r="H145">
-        <v>312.1222747802734</v>
+        <v>297.0750305175781</v>
       </c>
       <c r="I145">
-        <v>313.0880767822266</v>
+        <v>298.2173075358073</v>
       </c>
       <c r="L145">
-        <v>56.68351873852571</v>
+        <v>61.18232168839707</v>
       </c>
       <c r="M145">
-        <v>54.98791968258656</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>55.71331844475704</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>314.8629455566406</v>
+        <v>303.730712890625</v>
       </c>
       <c r="C146">
-        <v>316.8269653320312</v>
+        <v>305.7013244628906</v>
       </c>
       <c r="D146">
-        <v>314.8629455566406</v>
+        <v>303.0481262207031</v>
       </c>
       <c r="E146">
-        <v>316.7841796875</v>
+        <v>305.6242980957031</v>
       </c>
       <c r="F146">
-        <v>3425920</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>313.0763280790074</v>
+        <v>300.847804734809</v>
       </c>
       <c r="H146">
-        <v>312.3624374389648</v>
+        <v>297.6068695068359</v>
       </c>
       <c r="I146">
-        <v>313.0566060384115</v>
+        <v>298.2102223714193</v>
       </c>
       <c r="L146">
-        <v>61.85648932693632</v>
+        <v>65.55637118115949</v>
       </c>
       <c r="M146">
-        <v>58.10619594122307</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>58.70469580027186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>316.9617614746094</v>
+        <v>305.6138305664062</v>
       </c>
       <c r="C147">
-        <v>319.2218017578125</v>
+        <v>306.072021484375</v>
       </c>
       <c r="D147">
-        <v>316.2225952148437</v>
+        <v>305.5180358886719</v>
       </c>
       <c r="E147">
-        <v>318.5010070800781</v>
+        <v>305.8265075683594</v>
       </c>
       <c r="F147">
-        <v>17354560</v>
+        <v>7275456</v>
       </c>
       <c r="G147">
-        <v>313.5694807154683</v>
+        <v>301.3004140833135</v>
       </c>
       <c r="H147">
-        <v>312.8782745361328</v>
+        <v>298.2056396484375</v>
       </c>
       <c r="I147">
-        <v>313.1686726888021</v>
+        <v>298.2277903238932</v>
       </c>
       <c r="L147">
-        <v>65.9489007111026</v>
+        <v>66.01626904832452</v>
       </c>
       <c r="M147">
-        <v>60.7272177902603</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>59.02290126372532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>318.4434814453125</v>
+        <v>305.7743835449219</v>
       </c>
       <c r="C148">
-        <v>318.456787109375</v>
+        <v>306.0387878417969</v>
       </c>
       <c r="D148">
-        <v>317.2506713867188</v>
+        <v>304.5382080078125</v>
       </c>
       <c r="E148">
-        <v>317.4403076171875</v>
+        <v>305.8379516601562</v>
       </c>
       <c r="F148">
-        <v>3356032</v>
+        <v>10774912</v>
       </c>
       <c r="G148">
-        <v>313.9213740701701</v>
+        <v>301.7129174993901</v>
       </c>
       <c r="H148">
-        <v>313.2952453613281</v>
+        <v>298.8907989501953</v>
       </c>
       <c r="I148">
-        <v>313.2154337565104</v>
+        <v>298.0883778889974</v>
       </c>
       <c r="L148">
-        <v>61.37223885803257</v>
+        <v>66.04513506518599</v>
       </c>
       <c r="M148">
-        <v>58.30036992052163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>59.04213699808386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>317.4396362304688</v>
+        <v>305.8888244628906</v>
       </c>
       <c r="C149">
-        <v>319.2388000488281</v>
+        <v>308.5185852050781</v>
       </c>
       <c r="D149">
-        <v>317.2698364257812</v>
+        <v>305.7943725585937</v>
       </c>
       <c r="E149">
-        <v>318.9808959960937</v>
+        <v>306.0741882324219</v>
       </c>
       <c r="F149">
-        <v>1474688</v>
+        <v>30674944</v>
       </c>
       <c r="G149">
-        <v>314.3813306088904</v>
+        <v>302.1093966569384</v>
       </c>
       <c r="H149">
-        <v>313.7817001342773</v>
+        <v>299.5392944335937</v>
       </c>
       <c r="I149">
-        <v>313.2698089599609</v>
+        <v>298.0417205810547</v>
       </c>
       <c r="L149">
-        <v>65.30628022544713</v>
+        <v>66.70196469511551</v>
       </c>
       <c r="M149">
-        <v>60.75359822029773</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>59.46514315766479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>318.9912109375</v>
+        <v>306.0375671386719</v>
       </c>
       <c r="C150">
-        <v>319.2470092773437</v>
+        <v>308.7686462402344</v>
       </c>
       <c r="D150">
-        <v>317.8600463867188</v>
+        <v>305.9010620117188</v>
       </c>
       <c r="E150">
-        <v>318.2609558105469</v>
+        <v>307.0920715332031</v>
       </c>
       <c r="F150">
-        <v>1142400</v>
+        <v>12541760</v>
       </c>
       <c r="G150">
-        <v>314.734023809041</v>
+        <v>302.5623671002352</v>
       </c>
       <c r="H150">
-        <v>314.1306365966797</v>
+        <v>300.3749740600586</v>
       </c>
       <c r="I150">
-        <v>313.3117716471354</v>
+        <v>298.426611328125</v>
       </c>
       <c r="L150">
-        <v>61.98730173496861</v>
+        <v>69.55657974348547</v>
       </c>
       <c r="M150">
-        <v>59.00656728470051</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>61.31886330690457</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>318.2958679199219</v>
+        <v>307.0924682617188</v>
       </c>
       <c r="C151">
-        <v>320.9049682617188</v>
+        <v>307.7805480957031</v>
       </c>
       <c r="D151">
-        <v>318.2958679199219</v>
+        <v>304.9821166992188</v>
       </c>
       <c r="E151">
-        <v>320.3049011230469</v>
+        <v>305.0418395996094</v>
       </c>
       <c r="F151">
-        <v>25661440</v>
+        <v>44823872</v>
       </c>
       <c r="G151">
-        <v>315.2404672012233</v>
+        <v>302.7877736910874</v>
       </c>
       <c r="H151">
-        <v>314.5680252075196</v>
+        <v>301.0351333618164</v>
       </c>
       <c r="I151">
-        <v>313.4932484944662</v>
+        <v>298.716216023763</v>
       </c>
       <c r="J151">
-        <v>311.6383683268229</v>
+        <v>307.2114034016927</v>
       </c>
       <c r="L151">
-        <v>67.29587066035015</v>
+        <v>58.24234204290864</v>
       </c>
       <c r="M151">
-        <v>62.31943108456792</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>55.78506694897769</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>320.3230590820312</v>
+        <v>305.0281066894531</v>
       </c>
       <c r="C152">
-        <v>321.2838134765625</v>
+        <v>306.0945434570312</v>
       </c>
       <c r="D152">
-        <v>318.2885131835937</v>
+        <v>303.8121032714844</v>
       </c>
       <c r="E152">
-        <v>318.3645629882812</v>
+        <v>303.9605407714844</v>
       </c>
       <c r="F152">
-        <v>5214272</v>
+        <v>16312576</v>
       </c>
       <c r="G152">
-        <v>315.5244759091377</v>
+        <v>302.8943888802144</v>
       </c>
       <c r="H152">
-        <v>314.7376831054688</v>
+        <v>301.5014923095703</v>
       </c>
       <c r="I152">
-        <v>313.5982014973958</v>
+        <v>299.0181894938151</v>
       </c>
       <c r="J152">
-        <v>311.7274569978356</v>
+        <v>307.1683456185112</v>
       </c>
       <c r="L152">
-        <v>58.56167490139853</v>
+        <v>53.1159986730012</v>
       </c>
       <c r="M152">
-        <v>57.56356307097776</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>53.0650889198898</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>318.3790893554688</v>
+        <v>303.9947204589844</v>
       </c>
       <c r="C153">
-        <v>319.7400817871094</v>
+        <v>305.453369140625</v>
       </c>
       <c r="D153">
-        <v>315.8670654296875</v>
+        <v>303.2923583984375</v>
       </c>
       <c r="E153">
-        <v>316.4255981445312</v>
+        <v>304.9310302734375</v>
       </c>
       <c r="F153">
-        <v>19109376</v>
+        <v>4610688</v>
       </c>
       <c r="G153">
-        <v>315.6063961123554</v>
+        <v>303.0795380977801</v>
       </c>
       <c r="H153">
-        <v>315.1125671386719</v>
+        <v>302.1290664672852</v>
       </c>
       <c r="I153">
-        <v>313.6582448323568</v>
+        <v>299.2324747721354</v>
       </c>
       <c r="J153">
-        <v>311.7896840328912</v>
+        <v>307.1387123026824</v>
       </c>
       <c r="L153">
-        <v>51.10503406029317</v>
+        <v>56.9426087216489</v>
       </c>
       <c r="M153">
-        <v>53.19485391421656</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>55.17747616793021</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>316.3948364257812</v>
+        <v>305.0214538574219</v>
       </c>
       <c r="C154">
-        <v>318.2445373535156</v>
+        <v>307.3268432617188</v>
       </c>
       <c r="D154">
-        <v>314.6910705566406</v>
+        <v>304.6035766601562</v>
       </c>
       <c r="E154">
-        <v>317.6017761230469</v>
+        <v>306.2187194824219</v>
       </c>
       <c r="F154">
-        <v>26543104</v>
+        <v>6854784</v>
       </c>
       <c r="G154">
-        <v>315.7877942951455</v>
+        <v>303.3649182236566</v>
       </c>
       <c r="H154">
-        <v>315.3167419433594</v>
+        <v>302.8434936523437</v>
       </c>
       <c r="I154">
-        <v>313.9474263509115</v>
+        <v>299.4984608968099</v>
       </c>
       <c r="J154">
-        <v>311.8666653850787</v>
+        <v>307.1265269673147</v>
       </c>
       <c r="L154">
-        <v>55.01400712269862</v>
+        <v>61.6186901650906</v>
       </c>
       <c r="M154">
-        <v>55.40576838620201</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>57.88586093394812</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>317.6016540527344</v>
+        <v>306.1944885253906</v>
       </c>
       <c r="C155">
-        <v>317.6016540527344</v>
+        <v>306.6454772949219</v>
       </c>
       <c r="D155">
-        <v>310.7030029296875</v>
+        <v>305.9226379394531</v>
       </c>
       <c r="E155">
-        <v>313.282470703125</v>
+        <v>305.9505615234375</v>
       </c>
       <c r="F155">
-        <v>51783040</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>315.5600376049618</v>
+        <v>303.5999767054548</v>
       </c>
       <c r="H155">
-        <v>315.4584060668946</v>
+        <v>303.5436645507813</v>
       </c>
       <c r="I155">
-        <v>313.9464050292969</v>
+        <v>299.9352773030599</v>
       </c>
       <c r="J155">
-        <v>311.8854177733972</v>
+        <v>307.1109512660713</v>
       </c>
       <c r="L155">
-        <v>41.35498070317122</v>
+        <v>60.08983095823796</v>
       </c>
       <c r="M155">
-        <v>46.68455158416092</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>57.11192471651492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>313.1899719238281</v>
+        <v>305.9836730957031</v>
       </c>
       <c r="C156">
-        <v>314.6211547851562</v>
+        <v>309.1875610351562</v>
       </c>
       <c r="D156">
-        <v>308.860107421875</v>
+        <v>305.6819763183594</v>
       </c>
       <c r="E156">
-        <v>310.6378784179688</v>
+        <v>307.8209533691406</v>
       </c>
       <c r="F156">
-        <v>75765952</v>
+        <v>29595072</v>
       </c>
       <c r="G156">
-        <v>315.1125685879624</v>
+        <v>303.9837018566989</v>
       </c>
       <c r="H156">
-        <v>315.4364898681641</v>
+        <v>304.2616394042969</v>
       </c>
       <c r="I156">
-        <v>313.9016367594401</v>
+        <v>300.3630584716797</v>
       </c>
       <c r="J156">
-        <v>311.8688940733253</v>
+        <v>307.1203552674365</v>
       </c>
       <c r="L156">
-        <v>35.31538644568565</v>
+        <v>66.59377585208989</v>
       </c>
       <c r="M156">
-        <v>42.29481256575482</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>61.02604154134444</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>310.6637268066406</v>
+        <v>307.8207702636719</v>
       </c>
       <c r="C157">
-        <v>311.8317260742188</v>
+        <v>308.5808715820312</v>
       </c>
       <c r="D157">
-        <v>304.6249389648437</v>
+        <v>305.5320434570312</v>
       </c>
       <c r="E157">
-        <v>305.8368530273437</v>
+        <v>308.0886840820312</v>
       </c>
       <c r="F157">
-        <v>38913152</v>
+        <v>17549760</v>
       </c>
       <c r="G157">
-        <v>314.2693217188153</v>
+        <v>304.3568820590019</v>
       </c>
       <c r="H157">
-        <v>315.0423080444335</v>
+        <v>304.9391143798828</v>
       </c>
       <c r="I157">
-        <v>313.8233896891276</v>
+        <v>300.8376444498698</v>
       </c>
       <c r="J157">
-        <v>311.7889994899348</v>
+        <v>307.1331808146497</v>
       </c>
       <c r="L157">
-        <v>27.20190770861193</v>
+        <v>67.44803303307312</v>
       </c>
       <c r="M157">
-        <v>35.72698379434123</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>61.56673950529265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>305.8536682128906</v>
+        <v>308.1943359375</v>
       </c>
       <c r="C158">
-        <v>309.3191528320312</v>
+        <v>310.3482360839844</v>
       </c>
       <c r="D158">
-        <v>304.9872741699219</v>
+        <v>308.1874694824219</v>
       </c>
       <c r="E158">
-        <v>305.2994689941406</v>
+        <v>310.1582336425781</v>
       </c>
       <c r="F158">
-        <v>22875776</v>
+        <v>46288256</v>
       </c>
       <c r="G158">
-        <v>313.4538805620267</v>
+        <v>304.8842776575088</v>
       </c>
       <c r="H158">
-        <v>314.7488265991211</v>
+        <v>305.3012557983399</v>
       </c>
       <c r="I158">
-        <v>313.6966756184896</v>
+        <v>301.4384267171224</v>
       </c>
       <c r="J158">
-        <v>311.703045443633</v>
+        <v>307.1732477395229</v>
       </c>
       <c r="L158">
-        <v>26.4370863509756</v>
+        <v>73.36996198880553</v>
       </c>
       <c r="M158">
-        <v>35.07051765121067</v>
-      </c>
-      <c r="N158" t="s">
+        <v>65.54583420860612</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>305.4375</v>
+        <v>310.1582641601562</v>
       </c>
       <c r="C159">
-        <v>310.5827941894531</v>
+        <v>310.7130126953125</v>
       </c>
       <c r="D159">
-        <v>305.2621459960937</v>
+        <v>309.8178100585937</v>
       </c>
       <c r="E159">
-        <v>310.0203247070312</v>
+        <v>310.6690063476562</v>
       </c>
       <c r="F159">
-        <v>6429312</v>
+        <v>4884800</v>
       </c>
       <c r="G159">
-        <v>313.1417391206634</v>
+        <v>305.4101620838858</v>
       </c>
       <c r="H159">
-        <v>314.5892745971679</v>
+        <v>305.6894271850586</v>
       </c>
       <c r="I159">
-        <v>313.7222930908203</v>
+        <v>302.0239176432291</v>
       </c>
       <c r="J159">
-        <v>311.6807577517574</v>
+        <v>307.2195491780412</v>
       </c>
       <c r="L159">
-        <v>42.433394354033</v>
+        <v>74.65040808841943</v>
       </c>
       <c r="M159">
-        <v>44.68601172733182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>66.468545782454</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>310.0159912109375</v>
+        <v>310.7080078125</v>
       </c>
       <c r="C160">
-        <v>311.1738586425781</v>
+        <v>312.9622192382812</v>
       </c>
       <c r="D160">
-        <v>307.3337707519531</v>
+        <v>310.2620849609375</v>
       </c>
       <c r="E160">
-        <v>307.4739074707031</v>
+        <v>311.1763916015625</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>19494272</v>
       </c>
       <c r="G160">
-        <v>312.6264816979398</v>
+        <v>305.9343647673109</v>
       </c>
       <c r="H160">
-        <v>314.247947692871</v>
+        <v>306.1673614501953</v>
       </c>
       <c r="I160">
-        <v>313.5953491210938</v>
+        <v>302.7171813964844</v>
       </c>
       <c r="J160">
-        <v>311.6250378804852</v>
+        <v>307.271957686962</v>
       </c>
       <c r="L160">
-        <v>37.48685767674307</v>
+        <v>75.9430910433237</v>
       </c>
       <c r="M160">
-        <v>41.14640447068925</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>67.4024535450849</v>
+      </c>
+      <c r="O160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>307.708251953125</v>
+        <v>311.1458740234375</v>
       </c>
       <c r="C161">
-        <v>308.7669677734375</v>
+        <v>311.5890502929688</v>
       </c>
       <c r="D161">
-        <v>293.0435791015625</v>
+        <v>310.2108459472656</v>
       </c>
       <c r="E161">
-        <v>295.5453491210937</v>
+        <v>311.0370788574219</v>
       </c>
       <c r="F161">
-        <v>111577024</v>
+        <v>4030208</v>
       </c>
       <c r="G161">
-        <v>311.073651463681</v>
+        <v>306.3982478664119</v>
       </c>
       <c r="H161">
-        <v>313.3643646240234</v>
+        <v>306.6002319335938</v>
       </c>
       <c r="I161">
-        <v>313.0616231282552</v>
+        <v>303.35712890625</v>
       </c>
       <c r="J161">
-        <v>311.412061870427</v>
+        <v>307.3218268415376</v>
       </c>
       <c r="L161">
-        <v>23.22125621585305</v>
+        <v>74.7654110331525</v>
       </c>
       <c r="M161">
-        <v>29.39866767054271</v>
-      </c>
-      <c r="N161" t="s">
+        <v>66.8518956280745</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>295.6270141601562</v>
+        <v>311.0313110351562</v>
       </c>
       <c r="C162">
-        <v>298.1036376953125</v>
+        <v>311.3813781738281</v>
       </c>
       <c r="D162">
-        <v>291.0572814941406</v>
+        <v>310.1378479003906</v>
       </c>
       <c r="E162">
-        <v>296.3536987304688</v>
+        <v>310.5930480957031</v>
       </c>
       <c r="F162">
-        <v>46478144</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>309.7354739424799</v>
+        <v>306.779593341802</v>
       </c>
       <c r="H162">
-        <v>312.5300735473633</v>
+        <v>306.8360153198242</v>
       </c>
       <c r="I162">
-        <v>312.4410329182943</v>
+        <v>303.8891184488932</v>
       </c>
       <c r="J162">
-        <v>311.212613352017</v>
+        <v>307.3651542753676</v>
       </c>
       <c r="L162">
-        <v>25.38594510419904</v>
+        <v>70.82707237735143</v>
       </c>
       <c r="M162">
-        <v>30.83970460914751</v>
-      </c>
-      <c r="N162" t="s">
+        <v>65.0286754881661</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>296.4641723632812</v>
+        <v>310.5765380859375</v>
       </c>
       <c r="C163">
-        <v>298.2530212402344</v>
+        <v>311.8020629882812</v>
       </c>
       <c r="D163">
-        <v>294.72802734375</v>
+        <v>307.8428649902344</v>
       </c>
       <c r="E163">
-        <v>294.9013366699219</v>
+        <v>309.21142578125</v>
       </c>
       <c r="F163">
-        <v>23133824</v>
+        <v>11016448</v>
       </c>
       <c r="G163">
-        <v>308.386916008611</v>
+        <v>307.0006690181154</v>
       </c>
       <c r="H163">
-        <v>311.5334838867187</v>
+        <v>307.1454559326172</v>
       </c>
       <c r="I163">
-        <v>311.9734802246094</v>
+        <v>304.4501810709635</v>
       </c>
       <c r="J163">
-        <v>310.9965699522542</v>
+        <v>307.3896082025979</v>
       </c>
       <c r="L163">
-        <v>24.01725227844191</v>
+        <v>59.80038384167357</v>
       </c>
       <c r="M163">
-        <v>29.66801896032544</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>59.58349452376886</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>294.7484741210937</v>
+        <v>309.2543640136719</v>
       </c>
       <c r="C164">
-        <v>298.681884765625</v>
+        <v>310.8364562988281</v>
       </c>
       <c r="D164">
-        <v>293.0859375</v>
+        <v>309.1988525390625</v>
       </c>
       <c r="E164">
-        <v>298.5024719238281</v>
+        <v>309.7771301269531</v>
       </c>
       <c r="F164">
-        <v>9305536</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>307.4883301827216</v>
+        <v>307.2530745734643</v>
       </c>
       <c r="H164">
-        <v>310.7691467285156</v>
+        <v>307.4409896850586</v>
       </c>
       <c r="I164">
-        <v>311.4729532877604</v>
+        <v>305.0450795491536</v>
       </c>
       <c r="J164">
-        <v>310.8310852101559</v>
+        <v>307.421231009543</v>
       </c>
       <c r="L164">
-        <v>33.9506587080698</v>
+        <v>62.49031943194107</v>
       </c>
       <c r="M164">
-        <v>36.14598046433888</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>61.02263997503506</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>298.4072265625</v>
+        <v>309.7379150390625</v>
       </c>
       <c r="C165">
-        <v>300.3409729003906</v>
+        <v>310.8280334472656</v>
       </c>
       <c r="D165">
-        <v>297.6417846679688</v>
+        <v>306.9179382324219</v>
       </c>
       <c r="E165">
-        <v>298.2391357421875</v>
+        <v>307.3822631835937</v>
       </c>
       <c r="F165">
-        <v>7703232</v>
+        <v>2100224</v>
       </c>
       <c r="G165">
-        <v>306.6474943244912</v>
+        <v>307.264818992567</v>
       </c>
       <c r="H165">
-        <v>309.9378540039062</v>
+        <v>307.6235961914062</v>
       </c>
       <c r="I165">
-        <v>311.0659515380859</v>
+        <v>305.5595835367839</v>
       </c>
       <c r="J165">
-        <v>310.6643044225007</v>
+        <v>307.420714879398</v>
       </c>
       <c r="L165">
-        <v>33.58940760791138</v>
+        <v>47.38828744547678</v>
       </c>
       <c r="M165">
-        <v>35.88568741777617</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>52.49987088733724</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>298.2377319335937</v>
+        <v>307.4723815917969</v>
       </c>
       <c r="C166">
-        <v>298.2377319335937</v>
+        <v>307.864990234375</v>
       </c>
       <c r="D166">
-        <v>291.3782958984375</v>
+        <v>305.7891235351562</v>
       </c>
       <c r="E166">
-        <v>292.8460693359375</v>
+        <v>306.8028564453125</v>
       </c>
       <c r="F166">
-        <v>67734848</v>
+        <v>6699520</v>
       </c>
       <c r="G166">
-        <v>305.3928193255318</v>
+        <v>307.222822397362</v>
       </c>
       <c r="H166">
-        <v>308.7409484863281</v>
+        <v>307.6825241088867</v>
       </c>
       <c r="I166">
-        <v>310.4582804361979</v>
+        <v>306.004296875</v>
       </c>
       <c r="J166">
-        <v>310.4283013087714</v>
+        <v>307.4125313239796</v>
       </c>
       <c r="L166">
-        <v>26.97611016277606</v>
+        <v>44.46358434623751</v>
       </c>
       <c r="M166">
-        <v>30.96736761890487</v>
-      </c>
-      <c r="N166" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>50.6565040101659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>292.8678588867188</v>
+        <v>306.79833984375</v>
       </c>
       <c r="C167">
-        <v>296.58837890625</v>
+        <v>307.1763000488281</v>
       </c>
       <c r="D167">
-        <v>291.9310913085937</v>
+        <v>305.9926147460937</v>
       </c>
       <c r="E167">
-        <v>294.9875183105469</v>
+        <v>306.8900451660156</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>3022080</v>
       </c>
       <c r="G167">
-        <v>304.4468828696241</v>
+        <v>307.192569921785</v>
       </c>
       <c r="H167">
-        <v>307.5652740478515</v>
+        <v>307.7357009887695</v>
       </c>
       <c r="I167">
-        <v>309.833848063151</v>
+        <v>306.4159922281901</v>
       </c>
       <c r="J167">
-        <v>310.2237876266757</v>
+        <v>307.4056109775165</v>
       </c>
       <c r="L167">
-        <v>32.87942399481783</v>
+        <v>45.03783812854652</v>
       </c>
       <c r="M167">
-        <v>34.789200271586</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>50.93568173281861</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>295.0118103027344</v>
+        <v>306.8648681640625</v>
       </c>
       <c r="C168">
-        <v>297.4983215332031</v>
+        <v>307.3570251464844</v>
       </c>
       <c r="D168">
-        <v>292.5700988769531</v>
+        <v>301.7403564453125</v>
       </c>
       <c r="E168">
-        <v>293.8511047363281</v>
+        <v>303.037841796875</v>
       </c>
       <c r="F168">
-        <v>4193408</v>
+        <v>15862464</v>
       </c>
       <c r="G168">
-        <v>303.4836303120517</v>
+        <v>306.814867364975</v>
       </c>
       <c r="H168">
-        <v>306.3858139038085</v>
+        <v>307.5956954956055</v>
       </c>
       <c r="I168">
-        <v>309.2565816243489</v>
+        <v>306.420073445638</v>
       </c>
       <c r="J168">
-        <v>310.0069308996513</v>
+        <v>307.3477597300908</v>
       </c>
       <c r="L168">
-        <v>31.36563216153044</v>
+        <v>29.74841097663118</v>
       </c>
       <c r="M168">
-        <v>33.7222429440988</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>40.13193236591795</v>
+      </c>
+      <c r="N168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>293.8565673828125</v>
+        <v>303.0191345214844</v>
       </c>
       <c r="C169">
-        <v>294.2084350585937</v>
+        <v>304.6565246582031</v>
       </c>
       <c r="D169">
-        <v>290.8543395996094</v>
+        <v>300.4578857421875</v>
       </c>
       <c r="E169">
-        <v>292.134765625</v>
+        <v>304.6565246582031</v>
       </c>
       <c r="F169">
-        <v>6239424</v>
+        <v>24496128</v>
       </c>
       <c r="G169">
-        <v>302.4519153405015</v>
+        <v>306.6186543916322</v>
       </c>
       <c r="H169">
-        <v>305.0435073852539</v>
+        <v>307.5248123168946</v>
       </c>
       <c r="I169">
-        <v>308.5540283203125</v>
+        <v>306.4784383138021</v>
       </c>
       <c r="J169">
-        <v>309.770213478795</v>
+        <v>307.3121142324499</v>
       </c>
       <c r="L169">
-        <v>29.0899862739621</v>
+        <v>39.4632934741422</v>
       </c>
       <c r="M169">
-        <v>32.11999598091015</v>
-      </c>
-      <c r="N169" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>45.37495166875856</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>292.1076965332031</v>
+        <v>304.7001037597656</v>
       </c>
       <c r="C170">
-        <v>293.6065368652344</v>
+        <v>305.468994140625</v>
       </c>
       <c r="D170">
-        <v>291.1037902832031</v>
+        <v>303.5277099609375</v>
       </c>
       <c r="E170">
-        <v>293.1042785644531</v>
+        <v>304.6602172851562</v>
       </c>
       <c r="F170">
-        <v>3491712</v>
+        <v>16495104</v>
       </c>
       <c r="G170">
-        <v>301.6021301790425</v>
+        <v>306.4406146546798</v>
       </c>
       <c r="H170">
-        <v>303.7856735229492</v>
+        <v>307.4032196044922</v>
       </c>
       <c r="I170">
-        <v>307.8474894205729</v>
+        <v>306.5798553466797</v>
       </c>
       <c r="J170">
-        <v>309.5494726190025</v>
+        <v>307.2769897695718</v>
       </c>
       <c r="L170">
-        <v>32.21524310703367</v>
+        <v>39.48477040776174</v>
       </c>
       <c r="M170">
-        <v>34.02684134747238</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>45.38670180687296</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>293.0929870605469</v>
+        <v>304.6585693359375</v>
       </c>
       <c r="C171">
-        <v>293.693603515625</v>
+        <v>304.6585693359375</v>
       </c>
       <c r="D171">
-        <v>287.8705444335937</v>
+        <v>298.9606323242188</v>
       </c>
       <c r="E171">
-        <v>290.3784790039062</v>
+        <v>300.3778686523437</v>
       </c>
       <c r="F171">
-        <v>52561472</v>
+        <v>33937152</v>
       </c>
       <c r="G171">
-        <v>300.5817982540302</v>
+        <v>305.8894559271947</v>
       </c>
       <c r="H171">
-        <v>302.2893524169922</v>
+        <v>307.1700210571289</v>
       </c>
       <c r="I171">
-        <v>307.0862050374349</v>
+        <v>306.5131286621094</v>
       </c>
       <c r="J171">
-        <v>309.2955521737694</v>
+        <v>307.1856106819264</v>
       </c>
       <c r="L171">
-        <v>28.27380084911325</v>
+        <v>26.99143169425432</v>
       </c>
       <c r="M171">
-        <v>31.35956147169924</v>
+        <v>35.77566707606059</v>
       </c>
       <c r="N171" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>290.3793640136719</v>
+        <v>300.35107421875</v>
       </c>
       <c r="C172">
-        <v>291.8386535644531</v>
+        <v>301.0488891601562</v>
       </c>
       <c r="D172">
-        <v>287.7281494140625</v>
+        <v>296.5621337890625</v>
       </c>
       <c r="E172">
-        <v>291.8386535644531</v>
+        <v>298.2472229003906</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>24525248</v>
       </c>
       <c r="G172">
-        <v>299.786966918614</v>
+        <v>305.1947074702125</v>
       </c>
       <c r="H172">
-        <v>300.9630569458008</v>
+        <v>306.8843551635742</v>
       </c>
       <c r="I172">
-        <v>306.3795094807943</v>
+        <v>306.2587900797526</v>
       </c>
       <c r="J172">
-        <v>309.0643349736461</v>
+        <v>307.0672214397869</v>
       </c>
       <c r="L172">
-        <v>33.19917223139603</v>
+        <v>22.93035313717795</v>
       </c>
       <c r="M172">
-        <v>34.32927336212144</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>32.13008177782098</v>
+      </c>
+      <c r="N172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>291.8621826171875</v>
+        <v>298.2472534179688</v>
       </c>
       <c r="C173">
-        <v>294.9823303222656</v>
+        <v>299.2870178222656</v>
       </c>
       <c r="D173">
-        <v>289.5636901855469</v>
+        <v>297.5110778808594</v>
       </c>
       <c r="E173">
-        <v>294.6333618164062</v>
+        <v>298.08056640625</v>
       </c>
       <c r="F173">
-        <v>83114432</v>
+        <v>24522816</v>
       </c>
       <c r="G173">
-        <v>299.3184573638679</v>
+        <v>304.5479673734886</v>
       </c>
       <c r="H173">
-        <v>299.8734451293946</v>
+        <v>306.5418319702148</v>
       </c>
       <c r="I173">
-        <v>305.7061838785807</v>
+        <v>306.0940551757812</v>
       </c>
       <c r="J173">
-        <v>308.8731962563316</v>
+        <v>306.9481928962963</v>
       </c>
       <c r="L173">
-        <v>41.80393682530134</v>
+        <v>22.63072850131173</v>
       </c>
       <c r="M173">
-        <v>39.70607719298382</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>31.85663357065852</v>
+      </c>
+      <c r="N173" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>294.7489929199219</v>
+        <v>297.9896240234375</v>
       </c>
       <c r="C174">
-        <v>296.052490234375</v>
+        <v>300.2453308105469</v>
       </c>
       <c r="D174">
-        <v>292.1003112792969</v>
+        <v>297.2196960449219</v>
       </c>
       <c r="E174">
-        <v>292.3795471191406</v>
+        <v>298.913330078125</v>
       </c>
       <c r="F174">
-        <v>32126464</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>298.6876473416199</v>
+        <v>304.0357276193646</v>
       </c>
       <c r="H174">
-        <v>298.6123336791992</v>
+        <v>306.1765625</v>
       </c>
       <c r="I174">
-        <v>304.9925282796224</v>
+        <v>305.9289510091146</v>
       </c>
       <c r="J174">
-        <v>308.6547373273622</v>
+        <v>306.8417708722146</v>
       </c>
       <c r="L174">
-        <v>37.42965080544854</v>
+        <v>27.92496900484379</v>
       </c>
       <c r="M174">
-        <v>37.07009494501605</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>34.84080108911117</v>
+      </c>
+      <c r="N174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>292.3191833496094</v>
+        <v>298.9322204589844</v>
       </c>
       <c r="C175">
-        <v>293.060546875</v>
+        <v>301.8831787109375</v>
       </c>
       <c r="D175">
-        <v>289.1376037597656</v>
+        <v>298.4336242675781</v>
       </c>
       <c r="E175">
-        <v>291.93017578125</v>
+        <v>299.8779907226562</v>
       </c>
       <c r="F175">
-        <v>19060416</v>
+        <v>1342464</v>
       </c>
       <c r="G175">
-        <v>298.0733317452227</v>
+        <v>303.6577515378457</v>
       </c>
       <c r="H175">
-        <v>297.5447189331055</v>
+        <v>305.872933959961</v>
       </c>
       <c r="I175">
-        <v>304.2280344645182</v>
+        <v>305.8005462646485</v>
       </c>
       <c r="J175">
-        <v>308.4332199558905</v>
+        <v>306.749535373545</v>
       </c>
       <c r="L175">
-        <v>36.57128984674104</v>
+        <v>33.82599952460161</v>
       </c>
       <c r="M175">
-        <v>36.54909938320349</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>38.21610122719251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>291.920166015625</v>
+        <v>299.8156127929688</v>
       </c>
       <c r="C176">
-        <v>292.3015441894531</v>
+        <v>301.3695373535156</v>
       </c>
       <c r="D176">
-        <v>290.6173706054688</v>
+        <v>298.6471252441406</v>
       </c>
       <c r="E176">
-        <v>291.9471435546875</v>
+        <v>300.5926513671875</v>
       </c>
       <c r="F176">
-        <v>15284096</v>
+        <v>2500672</v>
       </c>
       <c r="G176">
-        <v>297.5164055460831</v>
+        <v>303.3791060677859</v>
       </c>
       <c r="H176">
-        <v>296.6101821899414</v>
+        <v>305.5115188598633</v>
       </c>
       <c r="I176">
-        <v>303.4001332600911</v>
+        <v>305.6328247070313</v>
       </c>
       <c r="J176">
-        <v>308.21486132806</v>
+        <v>306.6679872410105</v>
       </c>
       <c r="L176">
-        <v>36.63301884209622</v>
+        <v>38.05308048600004</v>
       </c>
       <c r="M176">
-        <v>36.58534071595925</v>
+        <v>40.66817947308417</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6971,37 +7007,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>291.9390563964844</v>
+        <v>300.6163940429688</v>
       </c>
       <c r="C177">
-        <v>295.0590209960937</v>
+        <v>301.0896301269531</v>
       </c>
       <c r="D177">
-        <v>290.8773803710937</v>
+        <v>299.26708984375</v>
       </c>
       <c r="E177">
-        <v>293.4614562988281</v>
+        <v>300.1469421386719</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>297.1477737963326</v>
+        <v>303.085272983321</v>
       </c>
       <c r="H177">
-        <v>295.9914123535156</v>
+        <v>305.1144317626953</v>
       </c>
       <c r="I177">
-        <v>302.5654815673828</v>
+        <v>305.443505859375</v>
       </c>
       <c r="J177">
-        <v>308.0194519899245</v>
+        <v>306.5816157827014</v>
       </c>
       <c r="L177">
-        <v>42.2735668007937</v>
+        <v>36.42075629206619</v>
       </c>
       <c r="M177">
-        <v>39.88539995178999</v>
+        <v>39.6122735485978</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7009,37 +7045,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>293.4853210449219</v>
+        <v>300.1639099121094</v>
       </c>
       <c r="C178">
-        <v>294.8670654296875</v>
+        <v>302.6690063476562</v>
       </c>
       <c r="D178">
-        <v>293.4048461914062</v>
+        <v>299.9427795410156</v>
       </c>
       <c r="E178">
-        <v>294.5391845703125</v>
+        <v>302.478271484375</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>3302656</v>
       </c>
       <c r="G178">
-        <v>296.9106293212399</v>
+        <v>303.0300910288714</v>
       </c>
       <c r="H178">
-        <v>295.4533981323242</v>
+        <v>304.7304336547851</v>
       </c>
       <c r="I178">
-        <v>301.8021107991536</v>
+        <v>305.3315165201823</v>
       </c>
       <c r="J178">
-        <v>307.8409054015853</v>
+        <v>306.5272668515977</v>
       </c>
       <c r="L178">
-        <v>46.11400190508762</v>
+        <v>49.23482414817745</v>
       </c>
       <c r="M178">
-        <v>42.19111200168429</v>
+        <v>47.31731660989316</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7047,37 +7083,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>294.5671997070312</v>
+        <v>302.4625549316406</v>
       </c>
       <c r="C179">
-        <v>303.7918395996094</v>
+        <v>303.4823608398437</v>
       </c>
       <c r="D179">
-        <v>294.5161437988281</v>
+        <v>301.3313903808594</v>
       </c>
       <c r="E179">
-        <v>302.9154052734375</v>
+        <v>303.3245544433594</v>
       </c>
       <c r="F179">
-        <v>22882880</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>297.456518044167</v>
+        <v>303.0568604301885</v>
       </c>
       <c r="H179">
-        <v>295.0981521606445</v>
+        <v>304.3632110595703</v>
       </c>
       <c r="I179">
-        <v>301.2665944417318</v>
+        <v>305.2398620605469</v>
       </c>
       <c r="J179">
-        <v>307.775666989292</v>
+        <v>306.4848468197005</v>
       </c>
       <c r="L179">
-        <v>65.93153614208425</v>
+        <v>53.09539586590429</v>
       </c>
       <c r="M179">
-        <v>56.23960796344164</v>
+        <v>49.8202623031616</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7085,37 +7121,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>302.9145812988281</v>
+        <v>303.3245544433594</v>
       </c>
       <c r="C180">
-        <v>303.0110473632812</v>
+        <v>304.2850646972656</v>
       </c>
       <c r="D180">
-        <v>300.8357238769531</v>
+        <v>302.2167663574219</v>
       </c>
       <c r="E180">
-        <v>302.9055786132812</v>
+        <v>302.8313598632812</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>28271488</v>
       </c>
       <c r="G180">
-        <v>297.9518871868137</v>
+        <v>303.0363603786515</v>
       </c>
       <c r="H180">
-        <v>294.8697357177734</v>
+        <v>303.9459594726562</v>
       </c>
       <c r="I180">
-        <v>300.7547485351562</v>
+        <v>305.0978383382161</v>
       </c>
       <c r="J180">
-        <v>307.7111625074906</v>
+        <v>306.4364562639864</v>
       </c>
       <c r="L180">
-        <v>65.89954965990435</v>
+        <v>50.57384947128019</v>
       </c>
       <c r="M180">
-        <v>56.22234613928158</v>
+        <v>48.37775947628195</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7123,37 +7159,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>302.9038696289062</v>
+        <v>302.861083984375</v>
       </c>
       <c r="C181">
-        <v>303.6548156738281</v>
+        <v>303.1521606445312</v>
       </c>
       <c r="D181">
-        <v>301.6177062988281</v>
+        <v>300.0230102539062</v>
       </c>
       <c r="E181">
-        <v>301.6177062988281</v>
+        <v>302.308349609375</v>
       </c>
       <c r="F181">
-        <v>7287872</v>
+        <v>25967616</v>
       </c>
       <c r="G181">
-        <v>298.2851434697241</v>
+        <v>302.9701775814445</v>
       </c>
       <c r="H181">
-        <v>295.1733535766601</v>
+        <v>303.5095230102539</v>
       </c>
       <c r="I181">
-        <v>300.1318420410156</v>
+        <v>305.0067220052084</v>
       </c>
       <c r="J181">
-        <v>307.6304544782368</v>
+        <v>306.3817793546538</v>
       </c>
       <c r="L181">
-        <v>61.50038221294542</v>
+        <v>47.8621194030188</v>
       </c>
       <c r="M181">
-        <v>53.88788269510422</v>
+        <v>46.82928247888604</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7161,37 +7197,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>301.6751708984375</v>
+        <v>302.285400390625</v>
       </c>
       <c r="C182">
-        <v>302.3873291015625</v>
+        <v>302.5601501464844</v>
       </c>
       <c r="D182">
-        <v>301.2691040039062</v>
+        <v>302.285400390625</v>
       </c>
       <c r="E182">
-        <v>301.6986389160156</v>
+        <v>302.4570922851562</v>
       </c>
       <c r="F182">
-        <v>1013120</v>
+        <v>3496320</v>
       </c>
       <c r="G182">
-        <v>298.5954612375688</v>
+        <v>302.9235334636002</v>
       </c>
       <c r="H182">
-        <v>295.4406005859375</v>
+        <v>303.1027252197266</v>
       </c>
       <c r="I182">
-        <v>299.5763112386068</v>
+        <v>304.9566070556641</v>
       </c>
       <c r="J182">
-        <v>307.5518873846975</v>
+        <v>306.3297967444618</v>
       </c>
       <c r="L182">
-        <v>61.6812257342069</v>
+        <v>48.74147485399284</v>
       </c>
       <c r="M182">
-        <v>54.01709681131206</v>
+        <v>47.34546684133726</v>
       </c>
     </row>
   </sheetData>
